--- a/LUKE_maak_nettonielu_kokeellinen.xlsx
+++ b/LUKE_maak_nettonielu_kokeellinen.xlsx
@@ -8,20 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\C_cluster\RePower\NewCarbonlayers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0E8A88C-E744-4113-A49F-2B9EE62602FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB7E10F-05C0-4070-8641-2BA0AA7C697B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1965" windowWidth="15900" windowHeight="9210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nettonielu" sheetId="2" r:id="rId1"/>
-    <sheet name="nettonielu_per_ha" sheetId="3" r:id="rId2"/>
+    <sheet name="nettonielu_2025" sheetId="4" r:id="rId2"/>
+    <sheet name="nettonielu_2025_min_org" sheetId="6" r:id="rId3"/>
+    <sheet name="nettonielu_per_ha" sheetId="3" r:id="rId4"/>
+    <sheet name="nettonielu_per_ha_2025" sheetId="5" r:id="rId5"/>
+    <sheet name="nettonielu_per_ha_2025_min_org" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="65">
   <si>
     <t>Kokeellinen tilasto: Metsien maakunnittainen hiilidioksidin nettonielu muuttujina Maakunta, Metsä- ja kitumaan nettonielu, Maaluokka, Vuosi ja Tieto</t>
   </si>
@@ -172,6 +189,59 @@
   <si>
     <t>Hehtaarikohtainen nettonielu, t CO2-ekv./ha:</t>
   </si>
+  <si>
+    <t>Kokeellinen tilasto: Metsien maakunnittaiset hiilitasetulokset muuttujina Maakunta, Metsä- ja kitumaan nettonielu, Tieto ja Vuosi</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>YHTEENSÄ (metsä- ja kitumaan nettonielu)</t>
+  </si>
+  <si>
+    <t>Nettonielu (Mt CO2-ekv.)</t>
+  </si>
+  <si>
+    <t>Tilaston hiilitaselaskennan tuloksissa negatiiviset luvut ovat nieluja ja positiiviset luvut ovat päästöjä.
+Laskennan yksikkönä on hiilidioksidiekvivalenttitonni (Mt CO2-ekv.), ja maakunnittaisen kokonaisarvion lisäksi esitetään pinta-alaan suhteutettu hehtaarikohtainen arvio (t CO2-ekv. / ha).
+Metsien maakunnittaiset hiilitaseet laskettiin kansallisen kasvihuonekaasuinventaarion ’metsämaana säilyneen metsämaan’ laskentamenetelmää soveltaen. Laskennan sisältö ja menetelmät on kuvattu kokeellisen tilaston &lt;A HREF=https://www.luke.fi/fi/menetelmakuvaus-metsien-maakunnittaiset-hiilitaselaskelmat-20152023 TARGET=_blank&gt;menetelmäkuvauksessa&lt;/A&gt;.</t>
+  </si>
+  <si>
+    <t>Nettonielu (Mt CO2-ekv.):</t>
+  </si>
+  <si>
+    <t>20250521 08:00</t>
+  </si>
+  <si>
+    <t>Luonnonvarakeskus, Kokeellinen tilasto: Metsien maakunnittaiset hiilitasetulokset 2015-2023</t>
+  </si>
+  <si>
+    <t>0700_hakker</t>
+  </si>
+  <si>
+    <t>Hehtaarikohtainen nettonielu (t CO2-ekv./ha)</t>
+  </si>
+  <si>
+    <t>Hehtaarikohtainen nettonielu (t CO2-ekv./ha):</t>
+  </si>
+  <si>
+    <t>Puusto, kivennäismaat CO2</t>
+  </si>
+  <si>
+    <t>Puusto, orgaaniset maat CO2</t>
+  </si>
+  <si>
+    <t>Maaperä, kivennäismaat CO2</t>
+  </si>
+  <si>
+    <t>Maaperä, orgaaniset maat CO2</t>
+  </si>
+  <si>
+    <t>Maaperä, orgaaniset maat CH4+N2O</t>
+  </si>
 </sst>
 </file>
 
@@ -219,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -233,6 +303,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -539,7 +625,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,11 +1405,4643 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D8B7FE-0823-4C48-A4CE-983F3C108BDF}">
+  <dimension ref="A1:L52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.54</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.34</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.53</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0.82</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0.54</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0.31</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0.89</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0.89</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="13">
+        <v>-0.38</v>
+      </c>
+      <c r="E5" s="13">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.24</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.27</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0.66</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0.65</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="13">
+        <v>-0.51</v>
+      </c>
+      <c r="E6" s="13">
+        <v>-0.26</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.34</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.34</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.78</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0.69</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="13">
+        <v>-0.33</v>
+      </c>
+      <c r="E7" s="13">
+        <v>-0.26</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.13</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.54</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.82</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="L7" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="13">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="E8" s="13">
+        <v>-0.8</v>
+      </c>
+      <c r="F8" s="13">
+        <v>-0.44</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.26</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0.23</v>
+      </c>
+      <c r="I8" s="13">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="K8" s="13">
+        <v>1.03</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="13">
+        <v>-0.38</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.42</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0.18</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0.09</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0.76</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L9" s="13">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.59</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.59</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.64</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.53</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0.42</v>
+      </c>
+      <c r="L10" s="13">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.53</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.63</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.43</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.06</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.53</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0.64</v>
+      </c>
+      <c r="L11" s="13">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="13">
+        <v>-0.05</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.49</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1.92</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0.79</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.53</v>
+      </c>
+      <c r="J12" s="13">
+        <v>1.65</v>
+      </c>
+      <c r="K12" s="13">
+        <v>1.78</v>
+      </c>
+      <c r="L12" s="13">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="13">
+        <v>-1.54</v>
+      </c>
+      <c r="E13" s="13">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="F13" s="13">
+        <v>-0.6</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="I13" s="13">
+        <v>-0.36</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="K13" s="13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="13">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="13">
+        <v>-2.5</v>
+      </c>
+      <c r="E14" s="13">
+        <v>-1.7</v>
+      </c>
+      <c r="F14" s="13">
+        <v>-1.66</v>
+      </c>
+      <c r="G14" s="13">
+        <v>-0.35</v>
+      </c>
+      <c r="H14" s="13">
+        <v>-1.01</v>
+      </c>
+      <c r="I14" s="13">
+        <v>-1.35</v>
+      </c>
+      <c r="J14" s="13">
+        <v>-0.22</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0.16</v>
+      </c>
+      <c r="L14" s="13">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="13">
+        <v>-1.56</v>
+      </c>
+      <c r="E15" s="13">
+        <v>-1.25</v>
+      </c>
+      <c r="F15" s="13">
+        <v>-0.47</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H15" s="13">
+        <v>-0.12</v>
+      </c>
+      <c r="I15" s="13">
+        <v>-0.06</v>
+      </c>
+      <c r="J15" s="13">
+        <v>1.17</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0.76</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="13">
+        <v>-1.74</v>
+      </c>
+      <c r="E16" s="13">
+        <v>-1.56</v>
+      </c>
+      <c r="F16" s="13">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="G16" s="13">
+        <v>-0.59</v>
+      </c>
+      <c r="H16" s="13">
+        <v>-0.26</v>
+      </c>
+      <c r="I16" s="13">
+        <v>-0.31</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0.44</v>
+      </c>
+      <c r="K16" s="13">
+        <v>0.43</v>
+      </c>
+      <c r="L16" s="13">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="13">
+        <v>-0.71</v>
+      </c>
+      <c r="E17" s="13">
+        <v>-0.62</v>
+      </c>
+      <c r="F17" s="13">
+        <v>-0.46</v>
+      </c>
+      <c r="G17" s="13">
+        <v>-0.22</v>
+      </c>
+      <c r="H17" s="13">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="I17" s="13">
+        <v>-0.31</v>
+      </c>
+      <c r="J17" s="13">
+        <v>-0.02</v>
+      </c>
+      <c r="K17" s="13">
+        <v>-0.11</v>
+      </c>
+      <c r="L17" s="13">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="13">
+        <v>-0.31</v>
+      </c>
+      <c r="E18" s="13">
+        <v>-0.22</v>
+      </c>
+      <c r="F18" s="13">
+        <v>-0.21</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="H18" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I18" s="13">
+        <v>-0.06</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.06</v>
+      </c>
+      <c r="K18" s="13">
+        <v>0.06</v>
+      </c>
+      <c r="L18" s="13">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="13">
+        <v>-2.2200000000000002</v>
+      </c>
+      <c r="E19" s="13">
+        <v>-2.15</v>
+      </c>
+      <c r="F19" s="13">
+        <v>-1.46</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.16</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.06</v>
+      </c>
+      <c r="I19" s="13">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="J19" s="13">
+        <v>2</v>
+      </c>
+      <c r="K19" s="13">
+        <v>1.35</v>
+      </c>
+      <c r="L19" s="13">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="13">
+        <v>-2.95</v>
+      </c>
+      <c r="E20" s="13">
+        <v>-2.68</v>
+      </c>
+      <c r="F20" s="13">
+        <v>-2.42</v>
+      </c>
+      <c r="G20" s="13">
+        <v>-1.49</v>
+      </c>
+      <c r="H20" s="13">
+        <v>-0.95</v>
+      </c>
+      <c r="I20" s="13">
+        <v>-0.59</v>
+      </c>
+      <c r="J20" s="13">
+        <v>-0.36</v>
+      </c>
+      <c r="K20" s="13">
+        <v>-0.23</v>
+      </c>
+      <c r="L20" s="13">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="13">
+        <v>-8.36</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-8.61</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-8.2100000000000009</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-7.68</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-7.8</v>
+      </c>
+      <c r="I21" s="13">
+        <v>-7.69</v>
+      </c>
+      <c r="J21" s="13">
+        <v>-7.44</v>
+      </c>
+      <c r="K21" s="13">
+        <v>-7.26</v>
+      </c>
+      <c r="L21" s="13">
+        <v>-7.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="13">
+        <v>-0.1</v>
+      </c>
+      <c r="E22" s="13">
+        <v>-0.16</v>
+      </c>
+      <c r="F22" s="13">
+        <v>-0.06</v>
+      </c>
+      <c r="G22" s="13">
+        <v>-0.03</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0.13</v>
+      </c>
+      <c r="I22" s="13">
+        <v>0.24</v>
+      </c>
+      <c r="J22" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="K22" s="13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L22" s="13">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32AFEA5-329E-41A9-8353-3786201F50EE}">
+  <dimension ref="A1:L128"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L128"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.61</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0.39</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0.48</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0.65</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="I4" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="J4" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="21">
+        <v>0.51</v>
+      </c>
+      <c r="L4" s="21">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="21">
+        <v>-0.26</v>
+      </c>
+      <c r="E5" s="21">
+        <v>-0.27</v>
+      </c>
+      <c r="F5" s="21">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="G5" s="21">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="H5" s="21">
+        <v>-0.21</v>
+      </c>
+      <c r="I5" s="21">
+        <v>-0.25</v>
+      </c>
+      <c r="J5" s="21">
+        <v>-0.22</v>
+      </c>
+      <c r="K5" s="21">
+        <v>-0.22</v>
+      </c>
+      <c r="L5" s="21">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="21">
+        <v>-0.12</v>
+      </c>
+      <c r="E6" s="21">
+        <v>-0.08</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0.19</v>
+      </c>
+      <c r="I6" s="21">
+        <v>0.22</v>
+      </c>
+      <c r="J6" s="21">
+        <v>0.27</v>
+      </c>
+      <c r="K6" s="21">
+        <v>0.27</v>
+      </c>
+      <c r="L6" s="21">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0.27</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G7" s="21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I7" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="J7" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="K7" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="L7" s="21">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="E8" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="H8" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="I8" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="J8" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="K8" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="L8" s="21">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="21">
+        <v>-0.02</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0.26</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0.34</v>
+      </c>
+      <c r="H9" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="I9" s="21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J9" s="21">
+        <v>0.46</v>
+      </c>
+      <c r="K9" s="21">
+        <v>0.44</v>
+      </c>
+      <c r="L9" s="21">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="21">
+        <v>-0.66</v>
+      </c>
+      <c r="E10" s="21">
+        <v>-0.63</v>
+      </c>
+      <c r="F10" s="21">
+        <v>-0.65</v>
+      </c>
+      <c r="G10" s="21">
+        <v>-0.66</v>
+      </c>
+      <c r="H10" s="21">
+        <v>-0.4</v>
+      </c>
+      <c r="I10" s="21">
+        <v>-0.42</v>
+      </c>
+      <c r="J10" s="21">
+        <v>-0.39</v>
+      </c>
+      <c r="K10" s="21">
+        <v>-0.39</v>
+      </c>
+      <c r="L10" s="21">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="21">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="E11" s="21">
+        <v>-0.11</v>
+      </c>
+      <c r="F11" s="21">
+        <v>-0.04</v>
+      </c>
+      <c r="G11" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="H11" s="21">
+        <v>0.09</v>
+      </c>
+      <c r="I11" s="21">
+        <v>0.12</v>
+      </c>
+      <c r="J11" s="21">
+        <v>0.16</v>
+      </c>
+      <c r="K11" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="L11" s="21">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0.41</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.38</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="G12" s="21">
+        <v>0.41</v>
+      </c>
+      <c r="H12" s="21">
+        <v>0.37</v>
+      </c>
+      <c r="I12" s="21">
+        <v>0.39</v>
+      </c>
+      <c r="J12" s="21">
+        <v>0.39</v>
+      </c>
+      <c r="K12" s="21">
+        <v>0.41</v>
+      </c>
+      <c r="L12" s="21">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="G13" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="H13" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="I13" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="J13" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="K13" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="L13" s="21">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="21">
+        <v>-0.39</v>
+      </c>
+      <c r="E14" s="21">
+        <v>-0.2</v>
+      </c>
+      <c r="F14" s="21">
+        <v>0.12</v>
+      </c>
+      <c r="G14" s="21">
+        <v>0.35</v>
+      </c>
+      <c r="H14" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="I14" s="21">
+        <v>0.24</v>
+      </c>
+      <c r="J14" s="21">
+        <v>0.59</v>
+      </c>
+      <c r="K14" s="21">
+        <v>0.49</v>
+      </c>
+      <c r="L14" s="21">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="21">
+        <v>-0.47</v>
+      </c>
+      <c r="E15" s="21">
+        <v>-0.41</v>
+      </c>
+      <c r="F15" s="21">
+        <v>-0.39</v>
+      </c>
+      <c r="G15" s="21">
+        <v>-0.4</v>
+      </c>
+      <c r="H15" s="21">
+        <v>-0.31</v>
+      </c>
+      <c r="I15" s="21">
+        <v>-0.37</v>
+      </c>
+      <c r="J15" s="21">
+        <v>-0.32</v>
+      </c>
+      <c r="K15" s="21">
+        <v>-0.35</v>
+      </c>
+      <c r="L15" s="21">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="21">
+        <v>-0.12</v>
+      </c>
+      <c r="E16" s="21">
+        <v>-0.13</v>
+      </c>
+      <c r="F16" s="21">
+        <v>-0.11</v>
+      </c>
+      <c r="G16" s="21">
+        <v>-0.08</v>
+      </c>
+      <c r="H16" s="21">
+        <v>-0.06</v>
+      </c>
+      <c r="I16" s="21">
+        <v>-0.03</v>
+      </c>
+      <c r="J16" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="K16" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="L16" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0.42</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0.42</v>
+      </c>
+      <c r="F17" s="21">
+        <v>0.41</v>
+      </c>
+      <c r="G17" s="21">
+        <v>0.42</v>
+      </c>
+      <c r="H17" s="21">
+        <v>0.43</v>
+      </c>
+      <c r="I17" s="21">
+        <v>0.46</v>
+      </c>
+      <c r="J17" s="21">
+        <v>0.45</v>
+      </c>
+      <c r="K17" s="21">
+        <v>0.48</v>
+      </c>
+      <c r="L17" s="21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="E18" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F18" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G18" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="H18" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="I18" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="J18" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="K18" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="L18" s="21">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="21">
+        <v>-0.17</v>
+      </c>
+      <c r="E19" s="21">
+        <v>-0.11</v>
+      </c>
+      <c r="F19" s="21">
+        <v>0.19</v>
+      </c>
+      <c r="G19" s="21">
+        <v>0.49</v>
+      </c>
+      <c r="H19" s="21">
+        <v>0.09</v>
+      </c>
+      <c r="I19" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="J19" s="21">
+        <v>0.42</v>
+      </c>
+      <c r="K19" s="21">
+        <v>0.32</v>
+      </c>
+      <c r="L19" s="21">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="21">
+        <v>-0.38</v>
+      </c>
+      <c r="E20" s="21">
+        <v>-0.37</v>
+      </c>
+      <c r="F20" s="21">
+        <v>-0.31</v>
+      </c>
+      <c r="G20" s="21">
+        <v>-0.26</v>
+      </c>
+      <c r="H20" s="21">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="I20" s="21">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="J20" s="21">
+        <v>-0.06</v>
+      </c>
+      <c r="K20" s="21">
+        <v>-0.08</v>
+      </c>
+      <c r="L20" s="21">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="21">
+        <v>-0.1</v>
+      </c>
+      <c r="E21" s="21">
+        <v>-0.11</v>
+      </c>
+      <c r="F21" s="21">
+        <v>-0.06</v>
+      </c>
+      <c r="G21" s="21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="I21" s="21">
+        <v>0.08</v>
+      </c>
+      <c r="J21" s="21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K21" s="21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L21" s="21">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E22" s="21">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F22" s="21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G22" s="21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H22" s="21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I22" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="J22" s="21">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K22" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="L22" s="21">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="E23" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="F23" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="G23" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="H23" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="I23" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="J23" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="K23" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="L23" s="21">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="21">
+        <v>-0.99</v>
+      </c>
+      <c r="E24" s="21">
+        <v>-0.68</v>
+      </c>
+      <c r="F24" s="21">
+        <v>-0.38</v>
+      </c>
+      <c r="G24" s="21">
+        <v>0.21</v>
+      </c>
+      <c r="H24" s="21">
+        <v>0.08</v>
+      </c>
+      <c r="I24" s="21">
+        <v>-0.2</v>
+      </c>
+      <c r="J24" s="21">
+        <v>0.67</v>
+      </c>
+      <c r="K24" s="21">
+        <v>0.69</v>
+      </c>
+      <c r="L24" s="21">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="21">
+        <v>-0.49</v>
+      </c>
+      <c r="E25" s="21">
+        <v>-0.44</v>
+      </c>
+      <c r="F25" s="21">
+        <v>-0.43</v>
+      </c>
+      <c r="G25" s="21">
+        <v>-0.38</v>
+      </c>
+      <c r="H25" s="21">
+        <v>-0.38</v>
+      </c>
+      <c r="I25" s="21">
+        <v>-0.47</v>
+      </c>
+      <c r="J25" s="21">
+        <v>-0.36</v>
+      </c>
+      <c r="K25" s="21">
+        <v>-0.36</v>
+      </c>
+      <c r="L25" s="21">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="21">
+        <v>-0.23</v>
+      </c>
+      <c r="E26" s="21">
+        <v>-0.24</v>
+      </c>
+      <c r="F26" s="21">
+        <v>-0.21</v>
+      </c>
+      <c r="G26" s="21">
+        <v>-0.15</v>
+      </c>
+      <c r="H26" s="21">
+        <v>-0.13</v>
+      </c>
+      <c r="I26" s="21">
+        <v>-0.13</v>
+      </c>
+      <c r="J26" s="21">
+        <v>-0.04</v>
+      </c>
+      <c r="K26" s="21">
+        <v>-0.03</v>
+      </c>
+      <c r="L26" s="21">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="21">
+        <v>0.47</v>
+      </c>
+      <c r="E27" s="21">
+        <v>0.49</v>
+      </c>
+      <c r="F27" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I27" s="21">
+        <v>0.64</v>
+      </c>
+      <c r="J27" s="21">
+        <v>0.62</v>
+      </c>
+      <c r="K27" s="21">
+        <v>0.64</v>
+      </c>
+      <c r="L27" s="21">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="21">
+        <v>0.08</v>
+      </c>
+      <c r="E28" s="21">
+        <v>0.08</v>
+      </c>
+      <c r="F28" s="21">
+        <v>0.08</v>
+      </c>
+      <c r="G28" s="21">
+        <v>0.08</v>
+      </c>
+      <c r="H28" s="21">
+        <v>0.08</v>
+      </c>
+      <c r="I28" s="21">
+        <v>0.08</v>
+      </c>
+      <c r="J28" s="21">
+        <v>0.08</v>
+      </c>
+      <c r="K28" s="21">
+        <v>0.08</v>
+      </c>
+      <c r="L28" s="21">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="21">
+        <v>-0.33</v>
+      </c>
+      <c r="E29" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F29" s="21">
+        <v>0.08</v>
+      </c>
+      <c r="G29" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="H29" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="I29" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="J29" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="K29" s="21">
+        <v>0.39</v>
+      </c>
+      <c r="L29" s="21">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="21">
+        <v>-0.1</v>
+      </c>
+      <c r="E30" s="21">
+        <v>-0.06</v>
+      </c>
+      <c r="F30" s="21">
+        <v>-0.08</v>
+      </c>
+      <c r="G30" s="21">
+        <v>-0.08</v>
+      </c>
+      <c r="H30" s="21">
+        <v>-0.1</v>
+      </c>
+      <c r="I30" s="21">
+        <v>-0.13</v>
+      </c>
+      <c r="J30" s="21">
+        <v>-0.09</v>
+      </c>
+      <c r="K30" s="21">
+        <v>-0.11</v>
+      </c>
+      <c r="L30" s="21">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="21">
+        <v>-0.16</v>
+      </c>
+      <c r="E31" s="21">
+        <v>-0.18</v>
+      </c>
+      <c r="F31" s="21">
+        <v>-0.16</v>
+      </c>
+      <c r="G31" s="21">
+        <v>-0.12</v>
+      </c>
+      <c r="H31" s="21">
+        <v>-0.1</v>
+      </c>
+      <c r="I31" s="21">
+        <v>-0.08</v>
+      </c>
+      <c r="J31" s="21">
+        <v>-0.02</v>
+      </c>
+      <c r="K31" s="21">
+        <v>-0.02</v>
+      </c>
+      <c r="L31" s="21">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="21">
+        <v>0.19</v>
+      </c>
+      <c r="E32" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="F32" s="21">
+        <v>0.19</v>
+      </c>
+      <c r="G32" s="21">
+        <v>0.19</v>
+      </c>
+      <c r="H32" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="I32" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="J32" s="21">
+        <v>0.24</v>
+      </c>
+      <c r="K32" s="21">
+        <v>0.26</v>
+      </c>
+      <c r="L32" s="21">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="E33" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="F33" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="G33" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="H33" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="I33" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="J33" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="K33" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="L33" s="21">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="21">
+        <v>0.43</v>
+      </c>
+      <c r="E34" s="21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F34" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="G34" s="21">
+        <v>0.45</v>
+      </c>
+      <c r="H34" s="21">
+        <v>-0.08</v>
+      </c>
+      <c r="I34" s="21">
+        <v>-0.33</v>
+      </c>
+      <c r="J34" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="K34" s="21">
+        <v>-0.04</v>
+      </c>
+      <c r="L34" s="21">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="21">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="E35" s="21">
+        <v>-0.12</v>
+      </c>
+      <c r="F35" s="21">
+        <v>-0.13</v>
+      </c>
+      <c r="G35" s="21">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="H35" s="21">
+        <v>-0.06</v>
+      </c>
+      <c r="I35" s="21">
+        <v>-0.1</v>
+      </c>
+      <c r="J35" s="21">
+        <v>-0.03</v>
+      </c>
+      <c r="K35" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="L35" s="21">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="21">
+        <v>-0.11</v>
+      </c>
+      <c r="E36" s="21">
+        <v>-0.08</v>
+      </c>
+      <c r="F36" s="21">
+        <v>0</v>
+      </c>
+      <c r="G36" s="21">
+        <v>0.09</v>
+      </c>
+      <c r="H36" s="21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I36" s="21">
+        <v>0.19</v>
+      </c>
+      <c r="J36" s="21">
+        <v>0.22</v>
+      </c>
+      <c r="K36" s="21">
+        <v>0.21</v>
+      </c>
+      <c r="L36" s="21">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="E37" s="21">
+        <v>0.18</v>
+      </c>
+      <c r="F37" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="G37" s="21">
+        <v>0.22</v>
+      </c>
+      <c r="H37" s="21">
+        <v>0.22</v>
+      </c>
+      <c r="I37" s="21">
+        <v>0.26</v>
+      </c>
+      <c r="J37" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="K37" s="21">
+        <v>0.27</v>
+      </c>
+      <c r="L37" s="21">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="E38" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="F38" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="G38" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="H38" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="I38" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="J38" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="K38" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="L38" s="21">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="21">
+        <v>0.71</v>
+      </c>
+      <c r="E39" s="21">
+        <v>0.64</v>
+      </c>
+      <c r="F39" s="21">
+        <v>0.63</v>
+      </c>
+      <c r="G39" s="21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H39" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="I39" s="21">
+        <v>-0.2</v>
+      </c>
+      <c r="J39" s="21">
+        <v>0.18</v>
+      </c>
+      <c r="K39" s="21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L39" s="21">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="21">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="E40" s="21">
+        <v>-0.3</v>
+      </c>
+      <c r="F40" s="21">
+        <v>-0.26</v>
+      </c>
+      <c r="G40" s="21">
+        <v>-0.23</v>
+      </c>
+      <c r="H40" s="21">
+        <v>-0.21</v>
+      </c>
+      <c r="I40" s="21">
+        <v>-0.23</v>
+      </c>
+      <c r="J40" s="21">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="K40" s="21">
+        <v>-0.13</v>
+      </c>
+      <c r="L40" s="21">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="21">
+        <v>-0.12</v>
+      </c>
+      <c r="E41" s="21">
+        <v>-0.08</v>
+      </c>
+      <c r="F41" s="21">
+        <v>-0.01</v>
+      </c>
+      <c r="G41" s="21">
+        <v>0.09</v>
+      </c>
+      <c r="H41" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="I41" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="J41" s="21">
+        <v>0.19</v>
+      </c>
+      <c r="K41" s="21">
+        <v>0.18</v>
+      </c>
+      <c r="L41" s="21">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="21">
+        <v>0.22</v>
+      </c>
+      <c r="E42" s="21">
+        <v>0.24</v>
+      </c>
+      <c r="F42" s="21">
+        <v>0.24</v>
+      </c>
+      <c r="G42" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="H42" s="21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I42" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="J42" s="21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K42" s="21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L42" s="21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="E43" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="F43" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="G43" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="H43" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="I43" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="J43" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="K43" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="L43" s="21">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="21">
+        <v>0</v>
+      </c>
+      <c r="E44" s="21">
+        <v>0.46</v>
+      </c>
+      <c r="F44" s="21">
+        <v>0.73</v>
+      </c>
+      <c r="G44" s="21">
+        <v>1.46</v>
+      </c>
+      <c r="H44" s="21">
+        <v>0.18</v>
+      </c>
+      <c r="I44" s="21">
+        <v>-0.17</v>
+      </c>
+      <c r="J44" s="21">
+        <v>0.67</v>
+      </c>
+      <c r="K44" s="21">
+        <v>0.77</v>
+      </c>
+      <c r="L44" s="21">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="21">
+        <v>-0.54</v>
+      </c>
+      <c r="E45" s="21">
+        <v>-0.47</v>
+      </c>
+      <c r="F45" s="21">
+        <v>-0.42</v>
+      </c>
+      <c r="G45" s="21">
+        <v>-0.31</v>
+      </c>
+      <c r="H45" s="21">
+        <v>-0.38</v>
+      </c>
+      <c r="I45" s="21">
+        <v>-0.42</v>
+      </c>
+      <c r="J45" s="21">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="K45" s="21">
+        <v>-0.27</v>
+      </c>
+      <c r="L45" s="21">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
+      <c r="B46" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="21">
+        <v>-0.34</v>
+      </c>
+      <c r="E46" s="21">
+        <v>-0.37</v>
+      </c>
+      <c r="F46" s="21">
+        <v>-0.24</v>
+      </c>
+      <c r="G46" s="21">
+        <v>-0.1</v>
+      </c>
+      <c r="H46" s="21">
+        <v>0</v>
+      </c>
+      <c r="I46" s="21">
+        <v>0.08</v>
+      </c>
+      <c r="J46" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="K46" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="L46" s="21">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+      <c r="B47" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="21">
+        <v>0.73</v>
+      </c>
+      <c r="E47" s="21">
+        <v>0.77</v>
+      </c>
+      <c r="F47" s="21">
+        <v>0.78</v>
+      </c>
+      <c r="G47" s="21">
+        <v>0.77</v>
+      </c>
+      <c r="H47" s="21">
+        <v>0.89</v>
+      </c>
+      <c r="I47" s="21">
+        <v>0.94</v>
+      </c>
+      <c r="J47" s="21">
+        <v>0.92</v>
+      </c>
+      <c r="K47" s="21">
+        <v>0.94</v>
+      </c>
+      <c r="L47" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E48" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="F48" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="G48" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="H48" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="I48" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="J48" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="K48" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="L48" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="21">
+        <v>-0.94</v>
+      </c>
+      <c r="E49" s="21">
+        <v>-0.67</v>
+      </c>
+      <c r="F49" s="21">
+        <v>-0.37</v>
+      </c>
+      <c r="G49" s="21">
+        <v>0.44</v>
+      </c>
+      <c r="H49" s="21">
+        <v>-0.23</v>
+      </c>
+      <c r="I49" s="21">
+        <v>-0.9</v>
+      </c>
+      <c r="J49" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="K49" s="21">
+        <v>-0.01</v>
+      </c>
+      <c r="L49" s="21">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
+      <c r="B50" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="21">
+        <v>-1.19</v>
+      </c>
+      <c r="E50" s="21">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="F50" s="21">
+        <v>-1</v>
+      </c>
+      <c r="G50" s="21">
+        <v>-0.76</v>
+      </c>
+      <c r="H50" s="21">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="I50" s="21">
+        <v>-0.63</v>
+      </c>
+      <c r="J50" s="21">
+        <v>-0.38</v>
+      </c>
+      <c r="K50" s="21">
+        <v>-0.37</v>
+      </c>
+      <c r="L50" s="21">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="18"/>
+      <c r="B51" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="21">
+        <v>-0.37</v>
+      </c>
+      <c r="E51" s="21">
+        <v>-0.39</v>
+      </c>
+      <c r="F51" s="21">
+        <v>-0.33</v>
+      </c>
+      <c r="G51" s="21">
+        <v>-0.22</v>
+      </c>
+      <c r="H51" s="21">
+        <v>-0.17</v>
+      </c>
+      <c r="I51" s="21">
+        <v>-0.13</v>
+      </c>
+      <c r="J51" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="K51" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="L51" s="21">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="18"/>
+      <c r="B52" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="E52" s="21">
+        <v>0.91</v>
+      </c>
+      <c r="F52" s="21">
+        <v>0.92</v>
+      </c>
+      <c r="G52" s="21">
+        <v>0.91</v>
+      </c>
+      <c r="H52" s="21">
+        <v>1.01</v>
+      </c>
+      <c r="I52" s="21">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J52" s="21">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="K52" s="21">
+        <v>1.17</v>
+      </c>
+      <c r="L52" s="21">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="18"/>
+      <c r="B53" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="E53" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="F53" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="G53" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="H53" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="I53" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="J53" s="21">
+        <v>0.18</v>
+      </c>
+      <c r="K53" s="21">
+        <v>0.18</v>
+      </c>
+      <c r="L53" s="21">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="21">
+        <v>-1.53</v>
+      </c>
+      <c r="E54" s="21">
+        <v>-0.89</v>
+      </c>
+      <c r="F54" s="21">
+        <v>-1.03</v>
+      </c>
+      <c r="G54" s="21">
+        <v>-0.09</v>
+      </c>
+      <c r="H54" s="21">
+        <v>-0.96</v>
+      </c>
+      <c r="I54" s="21">
+        <v>-1.42</v>
+      </c>
+      <c r="J54" s="21">
+        <v>-0.68</v>
+      </c>
+      <c r="K54" s="21">
+        <v>-0.41</v>
+      </c>
+      <c r="L54" s="21">
+        <v>-0.77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="18"/>
+      <c r="B55" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="21">
+        <v>-1.62</v>
+      </c>
+      <c r="E55" s="21">
+        <v>-1.47</v>
+      </c>
+      <c r="F55" s="21">
+        <v>-1.37</v>
+      </c>
+      <c r="G55" s="21">
+        <v>-1.01</v>
+      </c>
+      <c r="H55" s="21">
+        <v>-0.96</v>
+      </c>
+      <c r="I55" s="21">
+        <v>-0.94</v>
+      </c>
+      <c r="J55" s="21">
+        <v>-0.63</v>
+      </c>
+      <c r="K55" s="21">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="L55" s="21">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="18"/>
+      <c r="B56" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="21">
+        <v>-0.35</v>
+      </c>
+      <c r="E56" s="21">
+        <v>-0.4</v>
+      </c>
+      <c r="F56" s="21">
+        <v>-0.36</v>
+      </c>
+      <c r="G56" s="21">
+        <v>-0.3</v>
+      </c>
+      <c r="H56" s="21">
+        <v>-0.26</v>
+      </c>
+      <c r="I56" s="21">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="J56" s="21">
+        <v>-0.17</v>
+      </c>
+      <c r="K56" s="21">
+        <v>-0.18</v>
+      </c>
+      <c r="L56" s="21">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="18"/>
+      <c r="B57" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="21">
+        <v>0.82</v>
+      </c>
+      <c r="E57" s="21">
+        <v>0.87</v>
+      </c>
+      <c r="F57" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="G57" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="H57" s="21">
+        <v>0.98</v>
+      </c>
+      <c r="I57" s="21">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="J57" s="21">
+        <v>1.07</v>
+      </c>
+      <c r="K57" s="21">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="L57" s="21">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="18"/>
+      <c r="B58" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="E58" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="F58" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="G58" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="H58" s="21">
+        <v>0.19</v>
+      </c>
+      <c r="I58" s="21">
+        <v>0.19</v>
+      </c>
+      <c r="J58" s="21">
+        <v>0.19</v>
+      </c>
+      <c r="K58" s="21">
+        <v>0.19</v>
+      </c>
+      <c r="L58" s="21">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="21">
+        <v>-0.79</v>
+      </c>
+      <c r="E59" s="21">
+        <v>-0.53</v>
+      </c>
+      <c r="F59" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="G59" s="21">
+        <v>0.48</v>
+      </c>
+      <c r="H59" s="21">
+        <v>-0.32</v>
+      </c>
+      <c r="I59" s="21">
+        <v>-0.45</v>
+      </c>
+      <c r="J59" s="21">
+        <v>0.41</v>
+      </c>
+      <c r="K59" s="21">
+        <v>0</v>
+      </c>
+      <c r="L59" s="21">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="18"/>
+      <c r="B60" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="21">
+        <v>-1.25</v>
+      </c>
+      <c r="E60" s="21">
+        <v>-1.21</v>
+      </c>
+      <c r="F60" s="21">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G60" s="21">
+        <v>-1</v>
+      </c>
+      <c r="H60" s="21">
+        <v>-0.66</v>
+      </c>
+      <c r="I60" s="21">
+        <v>-0.66</v>
+      </c>
+      <c r="J60" s="21">
+        <v>-0.47</v>
+      </c>
+      <c r="K60" s="21">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="L60" s="21">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="18"/>
+      <c r="B61" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="21">
+        <v>-0.27</v>
+      </c>
+      <c r="E61" s="21">
+        <v>-0.25</v>
+      </c>
+      <c r="F61" s="21">
+        <v>-0.12</v>
+      </c>
+      <c r="G61" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="H61" s="21">
+        <v>0.11</v>
+      </c>
+      <c r="I61" s="21">
+        <v>0.22</v>
+      </c>
+      <c r="J61" s="21">
+        <v>0.39</v>
+      </c>
+      <c r="K61" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="L61" s="21">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="18"/>
+      <c r="B62" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="E62" s="21">
+        <v>0.59</v>
+      </c>
+      <c r="F62" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="G62" s="21">
+        <v>0.63</v>
+      </c>
+      <c r="H62" s="21">
+        <v>0.62</v>
+      </c>
+      <c r="I62" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="J62" s="21">
+        <v>0.71</v>
+      </c>
+      <c r="K62" s="21">
+        <v>0.78</v>
+      </c>
+      <c r="L62" s="21">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="18"/>
+      <c r="B63" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" s="21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E63" s="21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F63" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="G63" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="H63" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="I63" s="21">
+        <v>0.12</v>
+      </c>
+      <c r="J63" s="21">
+        <v>0.12</v>
+      </c>
+      <c r="K63" s="21">
+        <v>0.12</v>
+      </c>
+      <c r="L63" s="21">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64" s="21">
+        <v>-1</v>
+      </c>
+      <c r="E64" s="21">
+        <v>-0.89</v>
+      </c>
+      <c r="F64" s="21">
+        <v>-0.62</v>
+      </c>
+      <c r="G64" s="21">
+        <v>-0.24</v>
+      </c>
+      <c r="H64" s="21">
+        <v>-0.4</v>
+      </c>
+      <c r="I64" s="21">
+        <v>-0.49</v>
+      </c>
+      <c r="J64" s="21">
+        <v>-0.01</v>
+      </c>
+      <c r="K64" s="21">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="L64" s="21">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="18"/>
+      <c r="B65" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" s="21">
+        <v>-1.26</v>
+      </c>
+      <c r="E65" s="21">
+        <v>-1.21</v>
+      </c>
+      <c r="F65" s="21">
+        <v>-1.2</v>
+      </c>
+      <c r="G65" s="21">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="H65" s="21">
+        <v>-0.68</v>
+      </c>
+      <c r="I65" s="21">
+        <v>-0.85</v>
+      </c>
+      <c r="J65" s="21">
+        <v>-0.67</v>
+      </c>
+      <c r="K65" s="21">
+        <v>-0.71</v>
+      </c>
+      <c r="L65" s="21">
+        <v>-0.81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="18"/>
+      <c r="B66" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" s="21">
+        <v>-0.08</v>
+      </c>
+      <c r="E66" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="F66" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="G66" s="21">
+        <v>0.12</v>
+      </c>
+      <c r="H66" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="I66" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="J66" s="21">
+        <v>0.32</v>
+      </c>
+      <c r="K66" s="21">
+        <v>0.34</v>
+      </c>
+      <c r="L66" s="21">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="18"/>
+      <c r="B67" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" s="21">
+        <v>0.46</v>
+      </c>
+      <c r="E67" s="21">
+        <v>0.45</v>
+      </c>
+      <c r="F67" s="21">
+        <v>0.49</v>
+      </c>
+      <c r="G67" s="21">
+        <v>0.54</v>
+      </c>
+      <c r="H67" s="21">
+        <v>0.49</v>
+      </c>
+      <c r="I67" s="21">
+        <v>0.65</v>
+      </c>
+      <c r="J67" s="21">
+        <v>0.67</v>
+      </c>
+      <c r="K67" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="L67" s="21">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="18"/>
+      <c r="B68" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" s="21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E68" s="21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F68" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="G68" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="H68" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="I68" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="J68" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="K68" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="L68" s="21">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D69" s="21">
+        <v>-0.71</v>
+      </c>
+      <c r="E69" s="21">
+        <v>-0.63</v>
+      </c>
+      <c r="F69" s="21">
+        <v>-0.47</v>
+      </c>
+      <c r="G69" s="21">
+        <v>-0.25</v>
+      </c>
+      <c r="H69" s="21">
+        <v>-0.43</v>
+      </c>
+      <c r="I69" s="21">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="J69" s="21">
+        <v>-0.32</v>
+      </c>
+      <c r="K69" s="21">
+        <v>-0.42</v>
+      </c>
+      <c r="L69" s="21">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="18"/>
+      <c r="B70" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" s="21">
+        <v>-0.41</v>
+      </c>
+      <c r="E70" s="21">
+        <v>-0.39</v>
+      </c>
+      <c r="F70" s="21">
+        <v>-0.46</v>
+      </c>
+      <c r="G70" s="21">
+        <v>-0.52</v>
+      </c>
+      <c r="H70" s="21">
+        <v>-0.25</v>
+      </c>
+      <c r="I70" s="21">
+        <v>-0.4</v>
+      </c>
+      <c r="J70" s="21">
+        <v>-0.4</v>
+      </c>
+      <c r="K70" s="21">
+        <v>-0.44</v>
+      </c>
+      <c r="L70" s="21">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="18"/>
+      <c r="B71" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="E71" s="21">
+        <v>-0.03</v>
+      </c>
+      <c r="F71" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="G71" s="21">
+        <v>0.12</v>
+      </c>
+      <c r="H71" s="21">
+        <v>0.19</v>
+      </c>
+      <c r="I71" s="21">
+        <v>0.24</v>
+      </c>
+      <c r="J71" s="21">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K71" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="L71" s="21">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="18"/>
+      <c r="B72" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" s="21">
+        <v>0.39</v>
+      </c>
+      <c r="E72" s="21">
+        <v>0.37</v>
+      </c>
+      <c r="F72" s="21">
+        <v>0.37</v>
+      </c>
+      <c r="G72" s="21">
+        <v>0.37</v>
+      </c>
+      <c r="H72" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="I72" s="21">
+        <v>0.35</v>
+      </c>
+      <c r="J72" s="21">
+        <v>0.35</v>
+      </c>
+      <c r="K72" s="21">
+        <v>0.39</v>
+      </c>
+      <c r="L72" s="21">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="18"/>
+      <c r="B73" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="E73" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="F73" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="G73" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="H73" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="I73" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="J73" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="K73" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="L73" s="21">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D74" s="21">
+        <v>-0.25</v>
+      </c>
+      <c r="E74" s="21">
+        <v>-0.18</v>
+      </c>
+      <c r="F74" s="21">
+        <v>-0.18</v>
+      </c>
+      <c r="G74" s="21">
+        <v>-0.02</v>
+      </c>
+      <c r="H74" s="21">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="I74" s="21">
+        <v>-0.2</v>
+      </c>
+      <c r="J74" s="21">
+        <v>-0.12</v>
+      </c>
+      <c r="K74" s="21">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="L74" s="21">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="18"/>
+      <c r="B75" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75" s="21">
+        <v>-0.26</v>
+      </c>
+      <c r="E75" s="21">
+        <v>-0.23</v>
+      </c>
+      <c r="F75" s="21">
+        <v>-0.26</v>
+      </c>
+      <c r="G75" s="21">
+        <v>-0.22</v>
+      </c>
+      <c r="H75" s="21">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="I75" s="21">
+        <v>-0.24</v>
+      </c>
+      <c r="J75" s="21">
+        <v>-0.23</v>
+      </c>
+      <c r="K75" s="21">
+        <v>-0.24</v>
+      </c>
+      <c r="L75" s="21">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="18"/>
+      <c r="B76" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" s="21">
+        <v>-0.01</v>
+      </c>
+      <c r="E76" s="21">
+        <v>-0.01</v>
+      </c>
+      <c r="F76" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="G76" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="H76" s="21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I76" s="21">
+        <v>0.09</v>
+      </c>
+      <c r="J76" s="21">
+        <v>0.11</v>
+      </c>
+      <c r="K76" s="21">
+        <v>0.12</v>
+      </c>
+      <c r="L76" s="21">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="18"/>
+      <c r="B77" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77" s="21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E77" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="F77" s="21">
+        <v>0.16</v>
+      </c>
+      <c r="G77" s="21">
+        <v>0.16</v>
+      </c>
+      <c r="H77" s="21">
+        <v>0.16</v>
+      </c>
+      <c r="I77" s="21">
+        <v>0.22</v>
+      </c>
+      <c r="J77" s="21">
+        <v>0.24</v>
+      </c>
+      <c r="K77" s="21">
+        <v>0.27</v>
+      </c>
+      <c r="L77" s="21">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="18"/>
+      <c r="B78" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78" s="21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E78" s="21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F78" s="21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G78" s="21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H78" s="21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I78" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="J78" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="K78" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="L78" s="21">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D79" s="21">
+        <v>-0.66</v>
+      </c>
+      <c r="E79" s="21">
+        <v>-0.74</v>
+      </c>
+      <c r="F79" s="21">
+        <v>-0.42</v>
+      </c>
+      <c r="G79" s="21">
+        <v>0.52</v>
+      </c>
+      <c r="H79" s="21">
+        <v>-0.11</v>
+      </c>
+      <c r="I79" s="21">
+        <v>-0.5</v>
+      </c>
+      <c r="J79" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="K79" s="21">
+        <v>0.12</v>
+      </c>
+      <c r="L79" s="21">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="18"/>
+      <c r="B80" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80" s="21">
+        <v>-2.88</v>
+      </c>
+      <c r="E80" s="21">
+        <v>-2.92</v>
+      </c>
+      <c r="F80" s="21">
+        <v>-2.63</v>
+      </c>
+      <c r="G80" s="21">
+        <v>-2</v>
+      </c>
+      <c r="H80" s="21">
+        <v>-1.47</v>
+      </c>
+      <c r="I80" s="21">
+        <v>-1.61</v>
+      </c>
+      <c r="J80" s="21">
+        <v>-0.72</v>
+      </c>
+      <c r="K80" s="21">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="L80" s="21">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="18"/>
+      <c r="B81" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D81" s="21">
+        <v>-0.46</v>
+      </c>
+      <c r="E81" s="21">
+        <v>-0.44</v>
+      </c>
+      <c r="F81" s="21">
+        <v>-0.33</v>
+      </c>
+      <c r="G81" s="21">
+        <v>-0.19</v>
+      </c>
+      <c r="H81" s="21">
+        <v>-0.18</v>
+      </c>
+      <c r="I81" s="21">
+        <v>-0.13</v>
+      </c>
+      <c r="J81" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="K81" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="L81" s="21">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="18"/>
+      <c r="B82" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D82" s="21">
+        <v>1.25</v>
+      </c>
+      <c r="E82" s="21">
+        <v>1.42</v>
+      </c>
+      <c r="F82" s="21">
+        <v>1.39</v>
+      </c>
+      <c r="G82" s="21">
+        <v>1.32</v>
+      </c>
+      <c r="H82" s="21">
+        <v>1.32</v>
+      </c>
+      <c r="I82" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="J82" s="21">
+        <v>1.49</v>
+      </c>
+      <c r="K82" s="21">
+        <v>1.83</v>
+      </c>
+      <c r="L82" s="21">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="18"/>
+      <c r="B83" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D83" s="21">
+        <v>0.53</v>
+      </c>
+      <c r="E83" s="21">
+        <v>0.53</v>
+      </c>
+      <c r="F83" s="21">
+        <v>0.52</v>
+      </c>
+      <c r="G83" s="21">
+        <v>0.51</v>
+      </c>
+      <c r="H83" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="I83" s="21">
+        <v>0.49</v>
+      </c>
+      <c r="J83" s="21">
+        <v>0.49</v>
+      </c>
+      <c r="K83" s="21">
+        <v>0.49</v>
+      </c>
+      <c r="L83" s="21">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D84" s="21">
+        <v>-1.54</v>
+      </c>
+      <c r="E84" s="21">
+        <v>-1.4</v>
+      </c>
+      <c r="F84" s="21">
+        <v>-1.24</v>
+      </c>
+      <c r="G84" s="21">
+        <v>-0.52</v>
+      </c>
+      <c r="H84" s="21">
+        <v>-0.27</v>
+      </c>
+      <c r="I84" s="21">
+        <v>-0.1</v>
+      </c>
+      <c r="J84" s="21">
+        <v>-0.06</v>
+      </c>
+      <c r="K84" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="L84" s="21">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="18"/>
+      <c r="B85" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D85" s="21">
+        <v>-1.8</v>
+      </c>
+      <c r="E85" s="21">
+        <v>-1.76</v>
+      </c>
+      <c r="F85" s="21">
+        <v>-1.63</v>
+      </c>
+      <c r="G85" s="21">
+        <v>-1.37</v>
+      </c>
+      <c r="H85" s="21">
+        <v>-1.01</v>
+      </c>
+      <c r="I85" s="21">
+        <v>-0.89</v>
+      </c>
+      <c r="J85" s="21">
+        <v>-0.8</v>
+      </c>
+      <c r="K85" s="21">
+        <v>-0.8</v>
+      </c>
+      <c r="L85" s="21">
+        <v>-0.77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="18"/>
+      <c r="B86" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D86" s="21">
+        <v>-0.3</v>
+      </c>
+      <c r="E86" s="21">
+        <v>-0.3</v>
+      </c>
+      <c r="F86" s="21">
+        <v>-0.31</v>
+      </c>
+      <c r="G86" s="21">
+        <v>-0.34</v>
+      </c>
+      <c r="H86" s="21">
+        <v>-0.35</v>
+      </c>
+      <c r="I86" s="21">
+        <v>-0.38</v>
+      </c>
+      <c r="J86" s="21">
+        <v>-0.35</v>
+      </c>
+      <c r="K86" s="21">
+        <v>-0.33</v>
+      </c>
+      <c r="L86" s="21">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="18"/>
+      <c r="B87" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D87" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="E87" s="21">
+        <v>0.49</v>
+      </c>
+      <c r="F87" s="21">
+        <v>0.48</v>
+      </c>
+      <c r="G87" s="21">
+        <v>0.47</v>
+      </c>
+      <c r="H87" s="21">
+        <v>0.41</v>
+      </c>
+      <c r="I87" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="J87" s="21">
+        <v>0.59</v>
+      </c>
+      <c r="K87" s="21">
+        <v>0.68</v>
+      </c>
+      <c r="L87" s="21">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="18"/>
+      <c r="B88" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D88" s="21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E88" s="21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F88" s="21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G88" s="21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H88" s="21">
+        <v>0.27</v>
+      </c>
+      <c r="I88" s="21">
+        <v>0.27</v>
+      </c>
+      <c r="J88" s="21">
+        <v>0.27</v>
+      </c>
+      <c r="K88" s="21">
+        <v>0.27</v>
+      </c>
+      <c r="L88" s="21">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D89" s="21">
+        <v>-3.19</v>
+      </c>
+      <c r="E89" s="21">
+        <v>-3.56</v>
+      </c>
+      <c r="F89" s="21">
+        <v>-3.42</v>
+      </c>
+      <c r="G89" s="21">
+        <v>-3.14</v>
+      </c>
+      <c r="H89" s="21">
+        <v>-3.45</v>
+      </c>
+      <c r="I89" s="21">
+        <v>-3.49</v>
+      </c>
+      <c r="J89" s="21">
+        <v>-3.5</v>
+      </c>
+      <c r="K89" s="21">
+        <v>-3.43</v>
+      </c>
+      <c r="L89" s="21">
+        <v>-3.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="18"/>
+      <c r="B90" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D90" s="21">
+        <v>-2.42</v>
+      </c>
+      <c r="E90" s="21">
+        <v>-2.46</v>
+      </c>
+      <c r="F90" s="21">
+        <v>-2.25</v>
+      </c>
+      <c r="G90" s="21">
+        <v>-2.02</v>
+      </c>
+      <c r="H90" s="21">
+        <v>-1.61</v>
+      </c>
+      <c r="I90" s="21">
+        <v>-1.42</v>
+      </c>
+      <c r="J90" s="21">
+        <v>-1.23</v>
+      </c>
+      <c r="K90" s="21">
+        <v>-1.22</v>
+      </c>
+      <c r="L90" s="21">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="18"/>
+      <c r="B91" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D91" s="21">
+        <v>-0.66</v>
+      </c>
+      <c r="E91" s="21">
+        <v>-0.6</v>
+      </c>
+      <c r="F91" s="21">
+        <v>-0.59</v>
+      </c>
+      <c r="G91" s="21">
+        <v>-0.69</v>
+      </c>
+      <c r="H91" s="21">
+        <v>-0.92</v>
+      </c>
+      <c r="I91" s="21">
+        <v>-1.08</v>
+      </c>
+      <c r="J91" s="21">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="K91" s="21">
+        <v>-1.19</v>
+      </c>
+      <c r="L91" s="21">
+        <v>-1.23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="18"/>
+      <c r="B92" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D92" s="21">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="E92" s="21">
+        <v>-2.38</v>
+      </c>
+      <c r="F92" s="21">
+        <v>-2.34</v>
+      </c>
+      <c r="G92" s="21">
+        <v>-2.23</v>
+      </c>
+      <c r="H92" s="21">
+        <v>-2.23</v>
+      </c>
+      <c r="I92" s="21">
+        <v>-2.1</v>
+      </c>
+      <c r="J92" s="21">
+        <v>-1.98</v>
+      </c>
+      <c r="K92" s="21">
+        <v>-1.84</v>
+      </c>
+      <c r="L92" s="21">
+        <v>-1.68</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="18"/>
+      <c r="B93" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D93" s="21">
+        <v>0.39</v>
+      </c>
+      <c r="E93" s="21">
+        <v>0.39</v>
+      </c>
+      <c r="F93" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="G93" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="H93" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="I93" s="21">
+        <v>0.41</v>
+      </c>
+      <c r="J93" s="21">
+        <v>0.41</v>
+      </c>
+      <c r="K93" s="21">
+        <v>0.41</v>
+      </c>
+      <c r="L93" s="21">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D94" s="21">
+        <v>-0.06</v>
+      </c>
+      <c r="E94" s="21">
+        <v>-0.11</v>
+      </c>
+      <c r="F94" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="G94" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="H94" s="21">
+        <v>0.21</v>
+      </c>
+      <c r="I94" s="21">
+        <v>0.33</v>
+      </c>
+      <c r="J94" s="21">
+        <v>0.31</v>
+      </c>
+      <c r="K94" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="L94" s="21">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="18"/>
+      <c r="B95" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D95" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="E95" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="F95" s="21">
+        <v>-0.05</v>
+      </c>
+      <c r="G95" s="21">
+        <v>-0.06</v>
+      </c>
+      <c r="H95" s="21">
+        <v>-0.03</v>
+      </c>
+      <c r="I95" s="21">
+        <v>-0.03</v>
+      </c>
+      <c r="J95" s="21">
+        <v>-0.04</v>
+      </c>
+      <c r="K95" s="21">
+        <v>-0.04</v>
+      </c>
+      <c r="L95" s="21">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="18"/>
+      <c r="B96" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D96" s="21">
+        <v>-0.01</v>
+      </c>
+      <c r="E96" s="21">
+        <v>-0.01</v>
+      </c>
+      <c r="F96" s="21">
+        <v>-0.02</v>
+      </c>
+      <c r="G96" s="21">
+        <v>-0.04</v>
+      </c>
+      <c r="H96" s="21">
+        <v>-0.06</v>
+      </c>
+      <c r="I96" s="21">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="J96" s="21">
+        <v>-0.08</v>
+      </c>
+      <c r="K96" s="21">
+        <v>-0.08</v>
+      </c>
+      <c r="L96" s="21">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="18"/>
+      <c r="B97" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D97" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="E97" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="F97" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="G97" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="H97" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="I97" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="J97" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="K97" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="L97" s="21">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="18"/>
+      <c r="B98" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D98" s="21">
+        <v>0</v>
+      </c>
+      <c r="E98" s="21">
+        <v>0</v>
+      </c>
+      <c r="F98" s="21">
+        <v>0</v>
+      </c>
+      <c r="G98" s="21">
+        <v>0</v>
+      </c>
+      <c r="H98" s="21">
+        <v>0</v>
+      </c>
+      <c r="I98" s="21">
+        <v>0</v>
+      </c>
+      <c r="J98" s="21">
+        <v>0</v>
+      </c>
+      <c r="K98" s="21">
+        <v>0</v>
+      </c>
+      <c r="L98" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
+      <c r="J100" s="18"/>
+      <c r="K100" s="18"/>
+      <c r="L100" s="18"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="18"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
+      <c r="J103" s="18"/>
+      <c r="K103" s="18"/>
+      <c r="L103" s="18"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="18"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="18"/>
+      <c r="L104" s="18"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="18"/>
+      <c r="J106" s="18"/>
+      <c r="K106" s="18"/>
+      <c r="L106" s="18"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="18"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="18"/>
+      <c r="L107" s="18"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="18"/>
+      <c r="J109" s="18"/>
+      <c r="K109" s="18"/>
+      <c r="L109" s="18"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="18"/>
+      <c r="J110" s="18"/>
+      <c r="K110" s="18"/>
+      <c r="L110" s="18"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B111" s="18"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="18"/>
+      <c r="J111" s="18"/>
+      <c r="K111" s="18"/>
+      <c r="L111" s="18"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B112" s="18"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="18"/>
+      <c r="K112" s="18"/>
+      <c r="L112" s="18"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61746403-BF74-444F-9681-DA4F05420750}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2157,4 +6875,4636 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3447FB-D6F2-4A81-889A-00216F46DC67}">
+  <dimension ref="A1:L52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.64</v>
+      </c>
+      <c r="F4" s="17">
+        <v>1</v>
+      </c>
+      <c r="G4" s="17">
+        <v>1.55</v>
+      </c>
+      <c r="H4" s="17">
+        <v>1.04</v>
+      </c>
+      <c r="I4" s="17">
+        <v>0.61</v>
+      </c>
+      <c r="J4" s="17">
+        <v>1.69</v>
+      </c>
+      <c r="K4" s="17">
+        <v>1.69</v>
+      </c>
+      <c r="L4" s="17">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="17">
+        <v>-0.64</v>
+      </c>
+      <c r="E5" s="17">
+        <v>-0.12</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.39</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0.43</v>
+      </c>
+      <c r="J5" s="17">
+        <v>1.07</v>
+      </c>
+      <c r="K5" s="17">
+        <v>1.06</v>
+      </c>
+      <c r="L5" s="17">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="17">
+        <v>-0.96</v>
+      </c>
+      <c r="E6" s="17">
+        <v>-0.5</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.61</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0.62</v>
+      </c>
+      <c r="J6" s="17">
+        <v>1.43</v>
+      </c>
+      <c r="K6" s="17">
+        <v>1.26</v>
+      </c>
+      <c r="L6" s="17">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="17">
+        <v>-0.99</v>
+      </c>
+      <c r="E7" s="17">
+        <v>-0.8</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1.63</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.88</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0.87</v>
+      </c>
+      <c r="J7" s="17">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="K7" s="17">
+        <v>2.16</v>
+      </c>
+      <c r="L7" s="17">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="17">
+        <v>-1.2</v>
+      </c>
+      <c r="E8" s="17">
+        <v>-0.83</v>
+      </c>
+      <c r="F8" s="17">
+        <v>-0.46</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="I8" s="17">
+        <v>-0.08</v>
+      </c>
+      <c r="J8" s="17">
+        <v>1</v>
+      </c>
+      <c r="K8" s="17">
+        <v>1.05</v>
+      </c>
+      <c r="L8" s="17">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="17">
+        <v>-0.96</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="G9" s="17">
+        <v>1.08</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="J9" s="17">
+        <v>1.98</v>
+      </c>
+      <c r="K9" s="17">
+        <v>1.44</v>
+      </c>
+      <c r="L9" s="17">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1.31</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1.93</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1.93</v>
+      </c>
+      <c r="G10" s="17">
+        <v>2.1</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0.16</v>
+      </c>
+      <c r="J10" s="17">
+        <v>1.75</v>
+      </c>
+      <c r="K10" s="17">
+        <v>1.4</v>
+      </c>
+      <c r="L10" s="17">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1.39</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1.35</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1.59</v>
+      </c>
+      <c r="G11" s="17">
+        <v>1.84</v>
+      </c>
+      <c r="H11" s="17">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0.18</v>
+      </c>
+      <c r="J11" s="17">
+        <v>1.38</v>
+      </c>
+      <c r="K11" s="17">
+        <v>1.65</v>
+      </c>
+      <c r="L11" s="17">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="17">
+        <v>-0.06</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.45</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.87</v>
+      </c>
+      <c r="G12" s="17">
+        <v>1.77</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0.72</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0.48</v>
+      </c>
+      <c r="J12" s="17">
+        <v>1.52</v>
+      </c>
+      <c r="K12" s="17">
+        <v>1.64</v>
+      </c>
+      <c r="L12" s="17">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="17">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="E13" s="17">
+        <v>-0.81</v>
+      </c>
+      <c r="F13" s="17">
+        <v>-0.44</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="H13" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="I13" s="17">
+        <v>-0.25</v>
+      </c>
+      <c r="J13" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="K13" s="17">
+        <v>0.74</v>
+      </c>
+      <c r="L13" s="17">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="17">
+        <v>-1.61</v>
+      </c>
+      <c r="E14" s="17">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="F14" s="17">
+        <v>-1.08</v>
+      </c>
+      <c r="G14" s="17">
+        <v>-0.24</v>
+      </c>
+      <c r="H14" s="17">
+        <v>-0.66</v>
+      </c>
+      <c r="I14" s="17">
+        <v>-0.88</v>
+      </c>
+      <c r="J14" s="17">
+        <v>-0.15</v>
+      </c>
+      <c r="K14" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="L14" s="17">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="17">
+        <v>-1.17</v>
+      </c>
+      <c r="E15" s="17">
+        <v>-0.95</v>
+      </c>
+      <c r="F15" s="17">
+        <v>-0.37</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="H15" s="17">
+        <v>-0.12</v>
+      </c>
+      <c r="I15" s="17">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="J15" s="17">
+        <v>0.84</v>
+      </c>
+      <c r="K15" s="17">
+        <v>0.54</v>
+      </c>
+      <c r="L15" s="17">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="17">
+        <v>-1.85</v>
+      </c>
+      <c r="E16" s="17">
+        <v>-1.67</v>
+      </c>
+      <c r="F16" s="17">
+        <v>-1.25</v>
+      </c>
+      <c r="G16" s="17">
+        <v>-0.65</v>
+      </c>
+      <c r="H16" s="17">
+        <v>-0.3</v>
+      </c>
+      <c r="I16" s="17">
+        <v>-0.36</v>
+      </c>
+      <c r="J16" s="17">
+        <v>0.44</v>
+      </c>
+      <c r="K16" s="17">
+        <v>0.43</v>
+      </c>
+      <c r="L16" s="17">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="17">
+        <v>-1.46</v>
+      </c>
+      <c r="E17" s="17">
+        <v>-1.27</v>
+      </c>
+      <c r="F17" s="17">
+        <v>-0.99</v>
+      </c>
+      <c r="G17" s="17">
+        <v>-0.52</v>
+      </c>
+      <c r="H17" s="17">
+        <v>-0.37</v>
+      </c>
+      <c r="I17" s="17">
+        <v>-0.72</v>
+      </c>
+      <c r="J17" s="17">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="K17" s="17">
+        <v>-0.32</v>
+      </c>
+      <c r="L17" s="17">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="17">
+        <v>-0.85</v>
+      </c>
+      <c r="E18" s="17">
+        <v>-0.6</v>
+      </c>
+      <c r="F18" s="17">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="G18" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="H18" s="17">
+        <v>0.18</v>
+      </c>
+      <c r="I18" s="17">
+        <v>-0.19</v>
+      </c>
+      <c r="J18" s="17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K18" s="17">
+        <v>0.15</v>
+      </c>
+      <c r="L18" s="17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="17">
+        <v>-0.83</v>
+      </c>
+      <c r="E19" s="17">
+        <v>-0.8</v>
+      </c>
+      <c r="F19" s="17">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="G19" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="H19" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="I19" s="17">
+        <v>-0.05</v>
+      </c>
+      <c r="J19" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="K19" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="17">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="17">
+        <v>-1.69</v>
+      </c>
+      <c r="E20" s="17">
+        <v>-1.54</v>
+      </c>
+      <c r="F20" s="17">
+        <v>-1.39</v>
+      </c>
+      <c r="G20" s="17">
+        <v>-0.86</v>
+      </c>
+      <c r="H20" s="17">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="I20" s="17">
+        <v>-0.34</v>
+      </c>
+      <c r="J20" s="17">
+        <v>-0.21</v>
+      </c>
+      <c r="K20" s="17">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="L20" s="17">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="17">
+        <v>-1.39</v>
+      </c>
+      <c r="E21" s="17">
+        <v>-1.43</v>
+      </c>
+      <c r="F21" s="17">
+        <v>-1.36</v>
+      </c>
+      <c r="G21" s="17">
+        <v>-1.27</v>
+      </c>
+      <c r="H21" s="17">
+        <v>-1.29</v>
+      </c>
+      <c r="I21" s="17">
+        <v>-1.27</v>
+      </c>
+      <c r="J21" s="17">
+        <v>-1.23</v>
+      </c>
+      <c r="K21" s="17">
+        <v>-1.2</v>
+      </c>
+      <c r="L21" s="17">
+        <v>-1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="17">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="E22" s="17">
+        <v>-1.86</v>
+      </c>
+      <c r="F22" s="17">
+        <v>-0.69</v>
+      </c>
+      <c r="G22" s="17">
+        <v>-0.36</v>
+      </c>
+      <c r="H22" s="17">
+        <v>1.55</v>
+      </c>
+      <c r="I22" s="17">
+        <v>2.86</v>
+      </c>
+      <c r="J22" s="17">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="K22" s="17">
+        <v>1.72</v>
+      </c>
+      <c r="L22" s="17">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F765C71-11A6-4782-AE1C-FBAB6C930A45}">
+  <dimension ref="A1:L128"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="25">
+        <v>1.29</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0.83</v>
+      </c>
+      <c r="F4" s="25">
+        <v>1.02</v>
+      </c>
+      <c r="G4" s="25">
+        <v>1.38</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0.53</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="J4" s="25">
+        <v>1.07</v>
+      </c>
+      <c r="K4" s="25">
+        <v>1.08</v>
+      </c>
+      <c r="L4" s="25">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="25">
+        <v>-4.13</v>
+      </c>
+      <c r="E5" s="25">
+        <v>-4.38</v>
+      </c>
+      <c r="F5" s="25">
+        <v>-4.53</v>
+      </c>
+      <c r="G5" s="25">
+        <v>-4.58</v>
+      </c>
+      <c r="H5" s="25">
+        <v>-3.41</v>
+      </c>
+      <c r="I5" s="25">
+        <v>-3.98</v>
+      </c>
+      <c r="J5" s="25">
+        <v>-3.51</v>
+      </c>
+      <c r="K5" s="25">
+        <v>-3.51</v>
+      </c>
+      <c r="L5" s="25">
+        <v>-3.93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="25">
+        <v>-0.27</v>
+      </c>
+      <c r="E6" s="25">
+        <v>-0.16</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0.06</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0.32</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="I6" s="25">
+        <v>0.48</v>
+      </c>
+      <c r="J6" s="25">
+        <v>0.61</v>
+      </c>
+      <c r="K6" s="25">
+        <v>0.59</v>
+      </c>
+      <c r="L6" s="25">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="25">
+        <v>4.51</v>
+      </c>
+      <c r="E7" s="25">
+        <v>4.28</v>
+      </c>
+      <c r="F7" s="25">
+        <v>4.42</v>
+      </c>
+      <c r="G7" s="25">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="H7" s="25">
+        <v>4.55</v>
+      </c>
+      <c r="I7" s="25">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="J7" s="25">
+        <v>4.79</v>
+      </c>
+      <c r="K7" s="25">
+        <v>4.88</v>
+      </c>
+      <c r="L7" s="25">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.48</v>
+      </c>
+      <c r="E8" s="25">
+        <v>0.48</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="25">
+        <v>0.51</v>
+      </c>
+      <c r="J8" s="25">
+        <v>0.51</v>
+      </c>
+      <c r="K8" s="25">
+        <v>0.51</v>
+      </c>
+      <c r="L8" s="25">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="25">
+        <v>-0.04</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="F9" s="25">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0.65</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I9" s="25">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J9" s="25">
+        <v>0.87</v>
+      </c>
+      <c r="K9" s="25">
+        <v>0.84</v>
+      </c>
+      <c r="L9" s="25">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="25">
+        <v>-8.5</v>
+      </c>
+      <c r="E10" s="25">
+        <v>-8.1</v>
+      </c>
+      <c r="F10" s="25">
+        <v>-8.2799999999999994</v>
+      </c>
+      <c r="G10" s="25">
+        <v>-8.4499999999999993</v>
+      </c>
+      <c r="H10" s="25">
+        <v>-5.16</v>
+      </c>
+      <c r="I10" s="25">
+        <v>-5.46</v>
+      </c>
+      <c r="J10" s="25">
+        <v>-5.01</v>
+      </c>
+      <c r="K10" s="25">
+        <v>-5.05</v>
+      </c>
+      <c r="L10" s="25">
+        <v>-5.39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="25">
+        <v>-0.27</v>
+      </c>
+      <c r="E11" s="25">
+        <v>-0.22</v>
+      </c>
+      <c r="F11" s="25">
+        <v>-0.09</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="I11" s="25">
+        <v>0.22</v>
+      </c>
+      <c r="J11" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K11" s="25">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L11" s="25">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="25">
+        <v>5.21</v>
+      </c>
+      <c r="E12" s="25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F12" s="25">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G12" s="25">
+        <v>5.27</v>
+      </c>
+      <c r="H12" s="25">
+        <v>4.75</v>
+      </c>
+      <c r="I12" s="25">
+        <v>5.04</v>
+      </c>
+      <c r="J12" s="25">
+        <v>5.07</v>
+      </c>
+      <c r="K12" s="25">
+        <v>5.27</v>
+      </c>
+      <c r="L12" s="25">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="25">
+        <v>0.44</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0.44</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0.44</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0.44</v>
+      </c>
+      <c r="H13" s="25">
+        <v>0.44</v>
+      </c>
+      <c r="I13" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="J13" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="K13" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="L13" s="25">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="25">
+        <v>-0.94</v>
+      </c>
+      <c r="E14" s="25">
+        <v>-0.47</v>
+      </c>
+      <c r="F14" s="25">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0.84</v>
+      </c>
+      <c r="H14" s="25">
+        <v>0.54</v>
+      </c>
+      <c r="I14" s="25">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J14" s="25">
+        <v>1.41</v>
+      </c>
+      <c r="K14" s="25">
+        <v>1.17</v>
+      </c>
+      <c r="L14" s="25">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="25">
+        <v>-4.1500000000000004</v>
+      </c>
+      <c r="E15" s="25">
+        <v>-3.67</v>
+      </c>
+      <c r="F15" s="25">
+        <v>-3.53</v>
+      </c>
+      <c r="G15" s="25">
+        <v>-3.6</v>
+      </c>
+      <c r="H15" s="25">
+        <v>-2.77</v>
+      </c>
+      <c r="I15" s="25">
+        <v>-3.33</v>
+      </c>
+      <c r="J15" s="25">
+        <v>-2.9</v>
+      </c>
+      <c r="K15" s="25">
+        <v>-3.18</v>
+      </c>
+      <c r="L15" s="25">
+        <v>-3.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="25">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="E16" s="25">
+        <v>-0.33</v>
+      </c>
+      <c r="F16" s="25">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="G16" s="25">
+        <v>-0.23</v>
+      </c>
+      <c r="H16" s="25">
+        <v>-0.19</v>
+      </c>
+      <c r="I16" s="25">
+        <v>-0.12</v>
+      </c>
+      <c r="J16" s="25">
+        <v>-0.02</v>
+      </c>
+      <c r="K16" s="25">
+        <v>-0.01</v>
+      </c>
+      <c r="L16" s="25">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="25">
+        <v>3.72</v>
+      </c>
+      <c r="E17" s="25">
+        <v>3.78</v>
+      </c>
+      <c r="F17" s="25">
+        <v>3.69</v>
+      </c>
+      <c r="G17" s="25">
+        <v>3.73</v>
+      </c>
+      <c r="H17" s="25">
+        <v>3.85</v>
+      </c>
+      <c r="I17" s="25">
+        <v>4.13</v>
+      </c>
+      <c r="J17" s="25">
+        <v>4</v>
+      </c>
+      <c r="K17" s="25">
+        <v>4.32</v>
+      </c>
+      <c r="L17" s="25">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="F18" s="25">
+        <v>0.48</v>
+      </c>
+      <c r="G18" s="25">
+        <v>0.48</v>
+      </c>
+      <c r="H18" s="25">
+        <v>0.48</v>
+      </c>
+      <c r="I18" s="25">
+        <v>0.47</v>
+      </c>
+      <c r="J18" s="25">
+        <v>0.47</v>
+      </c>
+      <c r="K18" s="25">
+        <v>0.47</v>
+      </c>
+      <c r="L18" s="25">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="25">
+        <v>-0.64</v>
+      </c>
+      <c r="E19" s="25">
+        <v>-0.4</v>
+      </c>
+      <c r="F19" s="25">
+        <v>0.71</v>
+      </c>
+      <c r="G19" s="25">
+        <v>1.87</v>
+      </c>
+      <c r="H19" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="I19" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="J19" s="25">
+        <v>1.59</v>
+      </c>
+      <c r="K19" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="L19" s="25">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="25">
+        <v>-5.83</v>
+      </c>
+      <c r="E20" s="25">
+        <v>-5.69</v>
+      </c>
+      <c r="F20" s="25">
+        <v>-4.8600000000000003</v>
+      </c>
+      <c r="G20" s="25">
+        <v>-3.99</v>
+      </c>
+      <c r="H20" s="25">
+        <v>-2.11</v>
+      </c>
+      <c r="I20" s="25">
+        <v>-2.16</v>
+      </c>
+      <c r="J20" s="25">
+        <v>-0.97</v>
+      </c>
+      <c r="K20" s="25">
+        <v>-1.25</v>
+      </c>
+      <c r="L20" s="25">
+        <v>-1.56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="25">
+        <v>-0.38</v>
+      </c>
+      <c r="E21" s="25">
+        <v>-0.42</v>
+      </c>
+      <c r="F21" s="25">
+        <v>-0.25</v>
+      </c>
+      <c r="G21" s="25">
+        <v>-0.05</v>
+      </c>
+      <c r="H21" s="25">
+        <v>0.08</v>
+      </c>
+      <c r="I21" s="25">
+        <v>0.24</v>
+      </c>
+      <c r="J21" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="K21" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="L21" s="25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="25">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E22" s="25">
+        <v>4.46</v>
+      </c>
+      <c r="F22" s="25">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="G22" s="25">
+        <v>4.28</v>
+      </c>
+      <c r="H22" s="25">
+        <v>4.3</v>
+      </c>
+      <c r="I22" s="25">
+        <v>4.62</v>
+      </c>
+      <c r="J22" s="25">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="K22" s="25">
+        <v>4.75</v>
+      </c>
+      <c r="L22" s="25">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="25">
+        <v>0.54</v>
+      </c>
+      <c r="E23" s="25">
+        <v>0.54</v>
+      </c>
+      <c r="F23" s="25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G23" s="25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H23" s="25">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I23" s="25">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J23" s="25">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K23" s="25">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L23" s="25">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="25">
+        <v>-1.23</v>
+      </c>
+      <c r="E24" s="25">
+        <v>-0.85</v>
+      </c>
+      <c r="F24" s="25">
+        <v>-0.47</v>
+      </c>
+      <c r="G24" s="25">
+        <v>0.26</v>
+      </c>
+      <c r="H24" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="I24" s="25">
+        <v>-0.24</v>
+      </c>
+      <c r="J24" s="25">
+        <v>0.84</v>
+      </c>
+      <c r="K24" s="25">
+        <v>0.87</v>
+      </c>
+      <c r="L24" s="25">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="25">
+        <v>-2.9</v>
+      </c>
+      <c r="E25" s="25">
+        <v>-2.58</v>
+      </c>
+      <c r="F25" s="25">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="G25" s="25">
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="H25" s="25">
+        <v>-2.2200000000000002</v>
+      </c>
+      <c r="I25" s="25">
+        <v>-2.76</v>
+      </c>
+      <c r="J25" s="25">
+        <v>-2.14</v>
+      </c>
+      <c r="K25" s="25">
+        <v>-2.12</v>
+      </c>
+      <c r="L25" s="25">
+        <v>-2.56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="25">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="E26" s="25">
+        <v>-0.31</v>
+      </c>
+      <c r="F26" s="25">
+        <v>-0.27</v>
+      </c>
+      <c r="G26" s="25">
+        <v>-0.2</v>
+      </c>
+      <c r="H26" s="25">
+        <v>-0.18</v>
+      </c>
+      <c r="I26" s="25">
+        <v>-0.17</v>
+      </c>
+      <c r="J26" s="25">
+        <v>-0.06</v>
+      </c>
+      <c r="K26" s="25">
+        <v>-0.05</v>
+      </c>
+      <c r="L26" s="25">
+        <v>-0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="25">
+        <v>2.75</v>
+      </c>
+      <c r="E27" s="25">
+        <v>2.86</v>
+      </c>
+      <c r="F27" s="25">
+        <v>2.95</v>
+      </c>
+      <c r="G27" s="25">
+        <v>2.94</v>
+      </c>
+      <c r="H27" s="25">
+        <v>3.45</v>
+      </c>
+      <c r="I27" s="25">
+        <v>3.77</v>
+      </c>
+      <c r="J27" s="25">
+        <v>3.65</v>
+      </c>
+      <c r="K27" s="25">
+        <v>3.78</v>
+      </c>
+      <c r="L27" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="E28" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="F28" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="G28" s="25">
+        <v>0.47</v>
+      </c>
+      <c r="H28" s="25">
+        <v>0.48</v>
+      </c>
+      <c r="I28" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="J28" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="K28" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="L28" s="25">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="25">
+        <v>-0.94</v>
+      </c>
+      <c r="E29" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F29" s="25">
+        <v>0.22</v>
+      </c>
+      <c r="G29" s="25">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H29" s="25">
+        <v>0.37</v>
+      </c>
+      <c r="I29" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="J29" s="25">
+        <v>1.73</v>
+      </c>
+      <c r="K29" s="25">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L29" s="25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="25">
+        <v>-2.12</v>
+      </c>
+      <c r="E30" s="25">
+        <v>-1.37</v>
+      </c>
+      <c r="F30" s="25">
+        <v>-1.78</v>
+      </c>
+      <c r="G30" s="25">
+        <v>-1.61</v>
+      </c>
+      <c r="H30" s="25">
+        <v>-2.16</v>
+      </c>
+      <c r="I30" s="25">
+        <v>-2.75</v>
+      </c>
+      <c r="J30" s="25">
+        <v>-2.0099999999999998</v>
+      </c>
+      <c r="K30" s="25">
+        <v>-2.41</v>
+      </c>
+      <c r="L30" s="25">
+        <v>-2.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="25">
+        <v>-0.47</v>
+      </c>
+      <c r="E31" s="25">
+        <v>-0.52</v>
+      </c>
+      <c r="F31" s="25">
+        <v>-0.45</v>
+      </c>
+      <c r="G31" s="25">
+        <v>-0.33</v>
+      </c>
+      <c r="H31" s="25">
+        <v>-0.25</v>
+      </c>
+      <c r="I31" s="25">
+        <v>-0.18</v>
+      </c>
+      <c r="J31" s="25">
+        <v>0</v>
+      </c>
+      <c r="K31" s="25">
+        <v>0</v>
+      </c>
+      <c r="L31" s="25">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="25">
+        <v>3.99</v>
+      </c>
+      <c r="E32" s="25">
+        <v>3.62</v>
+      </c>
+      <c r="F32" s="25">
+        <v>3.99</v>
+      </c>
+      <c r="G32" s="25">
+        <v>4.12</v>
+      </c>
+      <c r="H32" s="25">
+        <v>4.92</v>
+      </c>
+      <c r="I32" s="25">
+        <v>5.36</v>
+      </c>
+      <c r="J32" s="25">
+        <v>5.27</v>
+      </c>
+      <c r="K32" s="25">
+        <v>5.54</v>
+      </c>
+      <c r="L32" s="25">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="25">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E33" s="25">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F33" s="25">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G33" s="25">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H33" s="25">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I33" s="25">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J33" s="25">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K33" s="25">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L33" s="25">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="25">
+        <v>1.66</v>
+      </c>
+      <c r="E34" s="25">
+        <v>2.27</v>
+      </c>
+      <c r="F34" s="25">
+        <v>1.93</v>
+      </c>
+      <c r="G34" s="25">
+        <v>1.74</v>
+      </c>
+      <c r="H34" s="25">
+        <v>-0.32</v>
+      </c>
+      <c r="I34" s="25">
+        <v>-1.28</v>
+      </c>
+      <c r="J34" s="25">
+        <v>0.23</v>
+      </c>
+      <c r="K34" s="25">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="L34" s="25">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="25">
+        <v>-2.86</v>
+      </c>
+      <c r="E35" s="25">
+        <v>-2.48</v>
+      </c>
+      <c r="F35" s="25">
+        <v>-2.73</v>
+      </c>
+      <c r="G35" s="25">
+        <v>-2.87</v>
+      </c>
+      <c r="H35" s="25">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="I35" s="25">
+        <v>-2.04</v>
+      </c>
+      <c r="J35" s="25">
+        <v>-0.68</v>
+      </c>
+      <c r="K35" s="25">
+        <v>-1.02</v>
+      </c>
+      <c r="L35" s="25">
+        <v>-1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="25">
+        <v>-0.41</v>
+      </c>
+      <c r="E36" s="25">
+        <v>-0.3</v>
+      </c>
+      <c r="F36" s="25">
+        <v>0</v>
+      </c>
+      <c r="G36" s="25">
+        <v>0.36</v>
+      </c>
+      <c r="H36" s="25">
+        <v>0.59</v>
+      </c>
+      <c r="I36" s="25">
+        <v>0.76</v>
+      </c>
+      <c r="J36" s="25">
+        <v>0.91</v>
+      </c>
+      <c r="K36" s="25">
+        <v>0.87</v>
+      </c>
+      <c r="L36" s="25">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="B37" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="25">
+        <v>4.07</v>
+      </c>
+      <c r="E37" s="25">
+        <v>3.83</v>
+      </c>
+      <c r="F37" s="25">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="G37" s="25">
+        <v>4.59</v>
+      </c>
+      <c r="H37" s="25">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I37" s="25">
+        <v>5.32</v>
+      </c>
+      <c r="J37" s="25">
+        <v>5.2</v>
+      </c>
+      <c r="K37" s="25">
+        <v>5.49</v>
+      </c>
+      <c r="L37" s="25">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
+      <c r="B38" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="E38" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="F38" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="G38" s="25">
+        <v>0.44</v>
+      </c>
+      <c r="H38" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="I38" s="25">
+        <v>0.48</v>
+      </c>
+      <c r="J38" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="K38" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="L38" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="25">
+        <v>2.09</v>
+      </c>
+      <c r="E39" s="25">
+        <v>1.89</v>
+      </c>
+      <c r="F39" s="25">
+        <v>1.83</v>
+      </c>
+      <c r="G39" s="25">
+        <v>1.71</v>
+      </c>
+      <c r="H39" s="25">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I39" s="25">
+        <v>-0.59</v>
+      </c>
+      <c r="J39" s="25">
+        <v>0.52</v>
+      </c>
+      <c r="K39" s="25">
+        <v>0.81</v>
+      </c>
+      <c r="L39" s="25">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
+      <c r="B40" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="25">
+        <v>-5.35</v>
+      </c>
+      <c r="E40" s="25">
+        <v>-5.52</v>
+      </c>
+      <c r="F40" s="25">
+        <v>-4.88</v>
+      </c>
+      <c r="G40" s="25">
+        <v>-4.3</v>
+      </c>
+      <c r="H40" s="25">
+        <v>-3.8</v>
+      </c>
+      <c r="I40" s="25">
+        <v>-4.22</v>
+      </c>
+      <c r="J40" s="25">
+        <v>-2.61</v>
+      </c>
+      <c r="K40" s="25">
+        <v>-2.33</v>
+      </c>
+      <c r="L40" s="25">
+        <v>-2.69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="B41" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="25">
+        <v>-0.34</v>
+      </c>
+      <c r="E41" s="25">
+        <v>-0.23</v>
+      </c>
+      <c r="F41" s="25">
+        <v>0</v>
+      </c>
+      <c r="G41" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H41" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="I41" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="J41" s="25">
+        <v>0.59</v>
+      </c>
+      <c r="K41" s="25">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L41" s="25">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
+      <c r="B42" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="25">
+        <v>4.03</v>
+      </c>
+      <c r="E42" s="25">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="F42" s="25">
+        <v>4.49</v>
+      </c>
+      <c r="G42" s="25">
+        <v>4.62</v>
+      </c>
+      <c r="H42" s="25">
+        <v>5.17</v>
+      </c>
+      <c r="I42" s="25">
+        <v>5.63</v>
+      </c>
+      <c r="J42" s="25">
+        <v>5.23</v>
+      </c>
+      <c r="K42" s="25">
+        <v>5.2</v>
+      </c>
+      <c r="L42" s="25">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
+      <c r="B43" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="25">
+        <v>0.47</v>
+      </c>
+      <c r="E43" s="25">
+        <v>0.47</v>
+      </c>
+      <c r="F43" s="25">
+        <v>0.47</v>
+      </c>
+      <c r="G43" s="25">
+        <v>0.48</v>
+      </c>
+      <c r="H43" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="I43" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="J43" s="25">
+        <v>0.51</v>
+      </c>
+      <c r="K43" s="25">
+        <v>0.51</v>
+      </c>
+      <c r="L43" s="25">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="25">
+        <v>0</v>
+      </c>
+      <c r="E44" s="25">
+        <v>0.52</v>
+      </c>
+      <c r="F44" s="25">
+        <v>0.84</v>
+      </c>
+      <c r="G44" s="25">
+        <v>1.67</v>
+      </c>
+      <c r="H44" s="25">
+        <v>0.21</v>
+      </c>
+      <c r="I44" s="25">
+        <v>-0.2</v>
+      </c>
+      <c r="J44" s="25">
+        <v>0.76</v>
+      </c>
+      <c r="K44" s="25">
+        <v>0.88</v>
+      </c>
+      <c r="L44" s="25">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="22"/>
+      <c r="B45" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="25">
+        <v>-2.63</v>
+      </c>
+      <c r="E45" s="25">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="F45" s="25">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="G45" s="25">
+        <v>-1.5</v>
+      </c>
+      <c r="H45" s="25">
+        <v>-1.86</v>
+      </c>
+      <c r="I45" s="25">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="J45" s="25">
+        <v>-1.41</v>
+      </c>
+      <c r="K45" s="25">
+        <v>-1.33</v>
+      </c>
+      <c r="L45" s="25">
+        <v>-1.65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="B46" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="25">
+        <v>-0.4</v>
+      </c>
+      <c r="E46" s="25">
+        <v>-0.43</v>
+      </c>
+      <c r="F46" s="25">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="G46" s="25">
+        <v>-0.13</v>
+      </c>
+      <c r="H46" s="25">
+        <v>-0.01</v>
+      </c>
+      <c r="I46" s="25">
+        <v>0.08</v>
+      </c>
+      <c r="J46" s="25">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K46" s="25">
+        <v>0.27</v>
+      </c>
+      <c r="L46" s="25">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="22"/>
+      <c r="B47" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="25">
+        <v>3.55</v>
+      </c>
+      <c r="E47" s="25">
+        <v>3.77</v>
+      </c>
+      <c r="F47" s="25">
+        <v>3.81</v>
+      </c>
+      <c r="G47" s="25">
+        <v>3.76</v>
+      </c>
+      <c r="H47" s="25">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="I47" s="25">
+        <v>4.58</v>
+      </c>
+      <c r="J47" s="25">
+        <v>4.49</v>
+      </c>
+      <c r="K47" s="25">
+        <v>4.59</v>
+      </c>
+      <c r="L47" s="25">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="22"/>
+      <c r="B48" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="E48" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="F48" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="G48" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="H48" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="I48" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="J48" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="K48" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="L48" s="25">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="25">
+        <v>-0.91</v>
+      </c>
+      <c r="E49" s="25">
+        <v>-0.64</v>
+      </c>
+      <c r="F49" s="25">
+        <v>-0.36</v>
+      </c>
+      <c r="G49" s="25">
+        <v>0.43</v>
+      </c>
+      <c r="H49" s="25">
+        <v>-0.22</v>
+      </c>
+      <c r="I49" s="25">
+        <v>-0.87</v>
+      </c>
+      <c r="J49" s="25">
+        <v>-0.05</v>
+      </c>
+      <c r="K49" s="25">
+        <v>-0.01</v>
+      </c>
+      <c r="L49" s="25">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="22"/>
+      <c r="B50" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="25">
+        <v>-3.42</v>
+      </c>
+      <c r="E50" s="25">
+        <v>-3.27</v>
+      </c>
+      <c r="F50" s="25">
+        <v>-2.86</v>
+      </c>
+      <c r="G50" s="25">
+        <v>-2.1800000000000002</v>
+      </c>
+      <c r="H50" s="25">
+        <v>-1.66</v>
+      </c>
+      <c r="I50" s="25">
+        <v>-1.79</v>
+      </c>
+      <c r="J50" s="25">
+        <v>-1.0900000000000001</v>
+      </c>
+      <c r="K50" s="25">
+        <v>-1.07</v>
+      </c>
+      <c r="L50" s="25">
+        <v>-1.29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="22"/>
+      <c r="B51" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="25">
+        <v>-0.37</v>
+      </c>
+      <c r="E51" s="25">
+        <v>-0.39</v>
+      </c>
+      <c r="F51" s="25">
+        <v>-0.32</v>
+      </c>
+      <c r="G51" s="25">
+        <v>-0.21</v>
+      </c>
+      <c r="H51" s="25">
+        <v>-0.16</v>
+      </c>
+      <c r="I51" s="25">
+        <v>-0.12</v>
+      </c>
+      <c r="J51" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="K51" s="25">
+        <v>0.06</v>
+      </c>
+      <c r="L51" s="25">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="22"/>
+      <c r="B52" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="25">
+        <v>2.29</v>
+      </c>
+      <c r="E52" s="25">
+        <v>2.61</v>
+      </c>
+      <c r="F52" s="25">
+        <v>2.64</v>
+      </c>
+      <c r="G52" s="25">
+        <v>2.62</v>
+      </c>
+      <c r="H52" s="25">
+        <v>2.88</v>
+      </c>
+      <c r="I52" s="25">
+        <v>3.21</v>
+      </c>
+      <c r="J52" s="25">
+        <v>3.2</v>
+      </c>
+      <c r="K52" s="25">
+        <v>3.34</v>
+      </c>
+      <c r="L52" s="25">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="22"/>
+      <c r="B53" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="E53" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="F53" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="G53" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="H53" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="I53" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="J53" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="K53" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="L53" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="25">
+        <v>-1.39</v>
+      </c>
+      <c r="E54" s="25">
+        <v>-0.81</v>
+      </c>
+      <c r="F54" s="25">
+        <v>-0.93</v>
+      </c>
+      <c r="G54" s="25">
+        <v>-0.09</v>
+      </c>
+      <c r="H54" s="25">
+        <v>-0.87</v>
+      </c>
+      <c r="I54" s="25">
+        <v>-1.29</v>
+      </c>
+      <c r="J54" s="25">
+        <v>-0.62</v>
+      </c>
+      <c r="K54" s="25">
+        <v>-0.37</v>
+      </c>
+      <c r="L54" s="25">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="22"/>
+      <c r="B55" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="25">
+        <v>-3.54</v>
+      </c>
+      <c r="E55" s="25">
+        <v>-3.2</v>
+      </c>
+      <c r="F55" s="25">
+        <v>-2.98</v>
+      </c>
+      <c r="G55" s="25">
+        <v>-2.19</v>
+      </c>
+      <c r="H55" s="25">
+        <v>-2.1</v>
+      </c>
+      <c r="I55" s="25">
+        <v>-2.04</v>
+      </c>
+      <c r="J55" s="25">
+        <v>-1.38</v>
+      </c>
+      <c r="K55" s="25">
+        <v>-1.24</v>
+      </c>
+      <c r="L55" s="25">
+        <v>-1.42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="22"/>
+      <c r="B56" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="25">
+        <v>-0.33</v>
+      </c>
+      <c r="E56" s="25">
+        <v>-0.38</v>
+      </c>
+      <c r="F56" s="25">
+        <v>-0.34</v>
+      </c>
+      <c r="G56" s="25">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="H56" s="25">
+        <v>-0.25</v>
+      </c>
+      <c r="I56" s="25">
+        <v>-0.27</v>
+      </c>
+      <c r="J56" s="25">
+        <v>-0.17</v>
+      </c>
+      <c r="K56" s="25">
+        <v>-0.18</v>
+      </c>
+      <c r="L56" s="25">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="22"/>
+      <c r="B57" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="25">
+        <v>1.78</v>
+      </c>
+      <c r="E57" s="25">
+        <v>1.89</v>
+      </c>
+      <c r="F57" s="25">
+        <v>1.95</v>
+      </c>
+      <c r="G57" s="25">
+        <v>1.85</v>
+      </c>
+      <c r="H57" s="25">
+        <v>2.14</v>
+      </c>
+      <c r="I57" s="25">
+        <v>2.37</v>
+      </c>
+      <c r="J57" s="25">
+        <v>2.33</v>
+      </c>
+      <c r="K57" s="25">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="L57" s="25">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="22"/>
+      <c r="B58" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="25">
+        <v>0.43</v>
+      </c>
+      <c r="E58" s="25">
+        <v>0.43</v>
+      </c>
+      <c r="F58" s="25">
+        <v>0.43</v>
+      </c>
+      <c r="G58" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="H58" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="I58" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="J58" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="K58" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="L58" s="25">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="25">
+        <v>-0.75</v>
+      </c>
+      <c r="E59" s="25">
+        <v>-0.5</v>
+      </c>
+      <c r="F59" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="G59" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="H59" s="25">
+        <v>-0.3</v>
+      </c>
+      <c r="I59" s="25">
+        <v>-0.42</v>
+      </c>
+      <c r="J59" s="25">
+        <v>0.39</v>
+      </c>
+      <c r="K59" s="25">
+        <v>0</v>
+      </c>
+      <c r="L59" s="25">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="22"/>
+      <c r="B60" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="25">
+        <v>-4.3600000000000003</v>
+      </c>
+      <c r="E60" s="25">
+        <v>-4.22</v>
+      </c>
+      <c r="F60" s="25">
+        <v>-3.85</v>
+      </c>
+      <c r="G60" s="25">
+        <v>-3.51</v>
+      </c>
+      <c r="H60" s="25">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="I60" s="25">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="J60" s="25">
+        <v>-1.65</v>
+      </c>
+      <c r="K60" s="25">
+        <v>-1.92</v>
+      </c>
+      <c r="L60" s="25">
+        <v>-2.19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="22"/>
+      <c r="B61" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="25">
+        <v>-0.26</v>
+      </c>
+      <c r="E61" s="25">
+        <v>-0.25</v>
+      </c>
+      <c r="F61" s="25">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="G61" s="25">
+        <v>-0.01</v>
+      </c>
+      <c r="H61" s="25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I61" s="25">
+        <v>0.17</v>
+      </c>
+      <c r="J61" s="25">
+        <v>0.33</v>
+      </c>
+      <c r="K61" s="25">
+        <v>0.34</v>
+      </c>
+      <c r="L61" s="25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="22"/>
+      <c r="B62" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="25">
+        <v>2.11</v>
+      </c>
+      <c r="E62" s="25">
+        <v>2.06</v>
+      </c>
+      <c r="F62" s="25">
+        <v>2.1</v>
+      </c>
+      <c r="G62" s="25">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H62" s="25">
+        <v>2.17</v>
+      </c>
+      <c r="I62" s="25">
+        <v>2.46</v>
+      </c>
+      <c r="J62" s="25">
+        <v>2.48</v>
+      </c>
+      <c r="K62" s="25">
+        <v>2.75</v>
+      </c>
+      <c r="L62" s="25">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="22"/>
+      <c r="B63" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" s="25">
+        <v>0.47</v>
+      </c>
+      <c r="E63" s="25">
+        <v>0.47</v>
+      </c>
+      <c r="F63" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="G63" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="H63" s="25">
+        <v>0.44</v>
+      </c>
+      <c r="I63" s="25">
+        <v>0.43</v>
+      </c>
+      <c r="J63" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="K63" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="L63" s="25">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" s="25">
+        <v>-1.71</v>
+      </c>
+      <c r="E64" s="25">
+        <v>-1.53</v>
+      </c>
+      <c r="F64" s="25">
+        <v>-1.06</v>
+      </c>
+      <c r="G64" s="25">
+        <v>-0.42</v>
+      </c>
+      <c r="H64" s="25">
+        <v>-0.68</v>
+      </c>
+      <c r="I64" s="25">
+        <v>-0.85</v>
+      </c>
+      <c r="J64" s="25">
+        <v>-0.02</v>
+      </c>
+      <c r="K64" s="25">
+        <v>-0.12</v>
+      </c>
+      <c r="L64" s="25">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="22"/>
+      <c r="B65" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65" s="25">
+        <v>-3.52</v>
+      </c>
+      <c r="E65" s="25">
+        <v>-3.4</v>
+      </c>
+      <c r="F65" s="25">
+        <v>-3.36</v>
+      </c>
+      <c r="G65" s="25">
+        <v>-3.2</v>
+      </c>
+      <c r="H65" s="25">
+        <v>-1.91</v>
+      </c>
+      <c r="I65" s="25">
+        <v>-2.37</v>
+      </c>
+      <c r="J65" s="25">
+        <v>-1.89</v>
+      </c>
+      <c r="K65" s="25">
+        <v>-1.99</v>
+      </c>
+      <c r="L65" s="25">
+        <v>-2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="22"/>
+      <c r="B66" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="25">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="E66" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="F66" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="G66" s="25">
+        <v>0.18</v>
+      </c>
+      <c r="H66" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="I66" s="25">
+        <v>0.39</v>
+      </c>
+      <c r="J66" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="K66" s="25">
+        <v>0.53</v>
+      </c>
+      <c r="L66" s="25">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="22"/>
+      <c r="B67" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67" s="25">
+        <v>1.28</v>
+      </c>
+      <c r="E67" s="25">
+        <v>1.26</v>
+      </c>
+      <c r="F67" s="25">
+        <v>1.39</v>
+      </c>
+      <c r="G67" s="25">
+        <v>1.51</v>
+      </c>
+      <c r="H67" s="25">
+        <v>1.38</v>
+      </c>
+      <c r="I67" s="25">
+        <v>1.82</v>
+      </c>
+      <c r="J67" s="25">
+        <v>1.88</v>
+      </c>
+      <c r="K67" s="25">
+        <v>2.09</v>
+      </c>
+      <c r="L67" s="25">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="22"/>
+      <c r="B68" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" s="25">
+        <v>0.38</v>
+      </c>
+      <c r="E68" s="25">
+        <v>0.38</v>
+      </c>
+      <c r="F68" s="25">
+        <v>0.38</v>
+      </c>
+      <c r="G68" s="25">
+        <v>0.37</v>
+      </c>
+      <c r="H68" s="25">
+        <v>0.37</v>
+      </c>
+      <c r="I68" s="25">
+        <v>0.36</v>
+      </c>
+      <c r="J68" s="25">
+        <v>0.36</v>
+      </c>
+      <c r="K68" s="25">
+        <v>0.36</v>
+      </c>
+      <c r="L68" s="25">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" s="25">
+        <v>-1.99</v>
+      </c>
+      <c r="E69" s="25">
+        <v>-1.76</v>
+      </c>
+      <c r="F69" s="25">
+        <v>-1.32</v>
+      </c>
+      <c r="G69" s="25">
+        <v>-0.71</v>
+      </c>
+      <c r="H69" s="25">
+        <v>-1.21</v>
+      </c>
+      <c r="I69" s="25">
+        <v>-1.59</v>
+      </c>
+      <c r="J69" s="25">
+        <v>-0.89</v>
+      </c>
+      <c r="K69" s="25">
+        <v>-1.18</v>
+      </c>
+      <c r="L69" s="25">
+        <v>-0.97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="22"/>
+      <c r="B70" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70" s="25">
+        <v>-2.97</v>
+      </c>
+      <c r="E70" s="25">
+        <v>-2.82</v>
+      </c>
+      <c r="F70" s="25">
+        <v>-3.33</v>
+      </c>
+      <c r="G70" s="25">
+        <v>-3.75</v>
+      </c>
+      <c r="H70" s="25">
+        <v>-1.82</v>
+      </c>
+      <c r="I70" s="25">
+        <v>-2.9</v>
+      </c>
+      <c r="J70" s="25">
+        <v>-2.92</v>
+      </c>
+      <c r="K70" s="25">
+        <v>-3.22</v>
+      </c>
+      <c r="L70" s="25">
+        <v>-3.01</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="22"/>
+      <c r="B71" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71" s="25">
+        <v>-0.17</v>
+      </c>
+      <c r="E71" s="25">
+        <v>-0.12</v>
+      </c>
+      <c r="F71" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="G71" s="25">
+        <v>0.23</v>
+      </c>
+      <c r="H71" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="I71" s="25">
+        <v>0.54</v>
+      </c>
+      <c r="J71" s="25">
+        <v>0.67</v>
+      </c>
+      <c r="K71" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="L71" s="25">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="22"/>
+      <c r="B72" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72" s="25">
+        <v>2.83</v>
+      </c>
+      <c r="E72" s="25">
+        <v>2.62</v>
+      </c>
+      <c r="F72" s="25">
+        <v>2.66</v>
+      </c>
+      <c r="G72" s="25">
+        <v>2.69</v>
+      </c>
+      <c r="H72" s="25">
+        <v>2.15</v>
+      </c>
+      <c r="I72" s="25">
+        <v>2.56</v>
+      </c>
+      <c r="J72" s="25">
+        <v>2.54</v>
+      </c>
+      <c r="K72" s="25">
+        <v>2.85</v>
+      </c>
+      <c r="L72" s="25">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="22"/>
+      <c r="B73" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D73" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="E73" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="F73" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="G73" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="H73" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="I73" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="J73" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="K73" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="L73" s="25">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" s="25">
+        <v>-1.23</v>
+      </c>
+      <c r="E74" s="25">
+        <v>-0.9</v>
+      </c>
+      <c r="F74" s="25">
+        <v>-0.88</v>
+      </c>
+      <c r="G74" s="25">
+        <v>-0.09</v>
+      </c>
+      <c r="H74" s="25">
+        <v>-0.36</v>
+      </c>
+      <c r="I74" s="25">
+        <v>-0.96</v>
+      </c>
+      <c r="J74" s="25">
+        <v>-0.59</v>
+      </c>
+      <c r="K74" s="25">
+        <v>-0.69</v>
+      </c>
+      <c r="L74" s="25">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="22"/>
+      <c r="B75" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D75" s="25">
+        <v>-1.56</v>
+      </c>
+      <c r="E75" s="25">
+        <v>-1.38</v>
+      </c>
+      <c r="F75" s="25">
+        <v>-1.58</v>
+      </c>
+      <c r="G75" s="25">
+        <v>-1.37</v>
+      </c>
+      <c r="H75" s="25">
+        <v>-0.88</v>
+      </c>
+      <c r="I75" s="25">
+        <v>-1.47</v>
+      </c>
+      <c r="J75" s="25">
+        <v>-1.43</v>
+      </c>
+      <c r="K75" s="25">
+        <v>-1.49</v>
+      </c>
+      <c r="L75" s="25">
+        <v>-1.39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="22"/>
+      <c r="B76" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D76" s="25">
+        <v>-0.08</v>
+      </c>
+      <c r="E76" s="25">
+        <v>-0.06</v>
+      </c>
+      <c r="F76" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="G76" s="25">
+        <v>0.16</v>
+      </c>
+      <c r="H76" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="I76" s="25">
+        <v>0.39</v>
+      </c>
+      <c r="J76" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="K76" s="25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L76" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="22"/>
+      <c r="B77" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D77" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="E77" s="25">
+        <v>0.79</v>
+      </c>
+      <c r="F77" s="25">
+        <v>0.94</v>
+      </c>
+      <c r="G77" s="25">
+        <v>0.98</v>
+      </c>
+      <c r="H77" s="25">
+        <v>0.97</v>
+      </c>
+      <c r="I77" s="25">
+        <v>1.37</v>
+      </c>
+      <c r="J77" s="25">
+        <v>1.49</v>
+      </c>
+      <c r="K77" s="25">
+        <v>1.64</v>
+      </c>
+      <c r="L77" s="25">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="22"/>
+      <c r="B78" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78" s="25">
+        <v>0.43</v>
+      </c>
+      <c r="E78" s="25">
+        <v>0.43</v>
+      </c>
+      <c r="F78" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="G78" s="25">
+        <v>0.41</v>
+      </c>
+      <c r="H78" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="I78" s="25">
+        <v>0.39</v>
+      </c>
+      <c r="J78" s="25">
+        <v>0.37</v>
+      </c>
+      <c r="K78" s="25">
+        <v>0.37</v>
+      </c>
+      <c r="L78" s="25">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D79" s="25">
+        <v>-0.44</v>
+      </c>
+      <c r="E79" s="25">
+        <v>-0.49</v>
+      </c>
+      <c r="F79" s="25">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="G79" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="H79" s="25">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="I79" s="25">
+        <v>-0.33</v>
+      </c>
+      <c r="J79" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="K79" s="25">
+        <v>0.08</v>
+      </c>
+      <c r="L79" s="25">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="22"/>
+      <c r="B80" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D80" s="25">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="E80" s="25">
+        <v>-2.52</v>
+      </c>
+      <c r="F80" s="25">
+        <v>-2.27</v>
+      </c>
+      <c r="G80" s="25">
+        <v>-1.73</v>
+      </c>
+      <c r="H80" s="25">
+        <v>-1.27</v>
+      </c>
+      <c r="I80" s="25">
+        <v>-1.39</v>
+      </c>
+      <c r="J80" s="25">
+        <v>-0.63</v>
+      </c>
+      <c r="K80" s="25">
+        <v>-0.97</v>
+      </c>
+      <c r="L80" s="25">
+        <v>-1.04</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="22"/>
+      <c r="B81" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D81" s="25">
+        <v>-0.3</v>
+      </c>
+      <c r="E81" s="25">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="F81" s="25">
+        <v>-0.22</v>
+      </c>
+      <c r="G81" s="25">
+        <v>-0.13</v>
+      </c>
+      <c r="H81" s="25">
+        <v>-0.12</v>
+      </c>
+      <c r="I81" s="25">
+        <v>-0.09</v>
+      </c>
+      <c r="J81" s="25">
+        <v>0</v>
+      </c>
+      <c r="K81" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="L81" s="25">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="22"/>
+      <c r="B82" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D82" s="25">
+        <v>1.08</v>
+      </c>
+      <c r="E82" s="25">
+        <v>1.22</v>
+      </c>
+      <c r="F82" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G82" s="25">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H82" s="25">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="I82" s="25">
+        <v>1.38</v>
+      </c>
+      <c r="J82" s="25">
+        <v>1.29</v>
+      </c>
+      <c r="K82" s="25">
+        <v>1.58</v>
+      </c>
+      <c r="L82" s="25">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="22"/>
+      <c r="B83" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D83" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="E83" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="F83" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="G83" s="25">
+        <v>0.44</v>
+      </c>
+      <c r="H83" s="25">
+        <v>0.44</v>
+      </c>
+      <c r="I83" s="25">
+        <v>0.43</v>
+      </c>
+      <c r="J83" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="K83" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="L83" s="25">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C84" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D84" s="25">
+        <v>-1.4</v>
+      </c>
+      <c r="E84" s="25">
+        <v>-1.26</v>
+      </c>
+      <c r="F84" s="25">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="G84" s="25">
+        <v>-0.48</v>
+      </c>
+      <c r="H84" s="25">
+        <v>-0.24</v>
+      </c>
+      <c r="I84" s="25">
+        <v>-0.09</v>
+      </c>
+      <c r="J84" s="25">
+        <v>-0.06</v>
+      </c>
+      <c r="K84" s="25">
+        <v>-0.05</v>
+      </c>
+      <c r="L84" s="25">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="22"/>
+      <c r="B85" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D85" s="25">
+        <v>-2.79</v>
+      </c>
+      <c r="E85" s="25">
+        <v>-2.74</v>
+      </c>
+      <c r="F85" s="25">
+        <v>-2.54</v>
+      </c>
+      <c r="G85" s="25">
+        <v>-2.14</v>
+      </c>
+      <c r="H85" s="25">
+        <v>-1.57</v>
+      </c>
+      <c r="I85" s="25">
+        <v>-1.38</v>
+      </c>
+      <c r="J85" s="25">
+        <v>-1.25</v>
+      </c>
+      <c r="K85" s="25">
+        <v>-1.25</v>
+      </c>
+      <c r="L85" s="25">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="22"/>
+      <c r="B86" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D86" s="25">
+        <v>-0.27</v>
+      </c>
+      <c r="E86" s="25">
+        <v>-0.27</v>
+      </c>
+      <c r="F86" s="25">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="G86" s="25">
+        <v>-0.31</v>
+      </c>
+      <c r="H86" s="25">
+        <v>-0.33</v>
+      </c>
+      <c r="I86" s="25">
+        <v>-0.35</v>
+      </c>
+      <c r="J86" s="25">
+        <v>-0.33</v>
+      </c>
+      <c r="K86" s="25">
+        <v>-0.31</v>
+      </c>
+      <c r="L86" s="25">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="22"/>
+      <c r="B87" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D87" s="25">
+        <v>0.62</v>
+      </c>
+      <c r="E87" s="25">
+        <v>0.76</v>
+      </c>
+      <c r="F87" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="G87" s="25">
+        <v>0.73</v>
+      </c>
+      <c r="H87" s="25">
+        <v>0.64</v>
+      </c>
+      <c r="I87" s="25">
+        <v>0.78</v>
+      </c>
+      <c r="J87" s="25">
+        <v>0.92</v>
+      </c>
+      <c r="K87" s="25">
+        <v>1.07</v>
+      </c>
+      <c r="L87" s="25">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="22"/>
+      <c r="B88" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D88" s="25">
+        <v>0.44</v>
+      </c>
+      <c r="E88" s="25">
+        <v>0.44</v>
+      </c>
+      <c r="F88" s="25">
+        <v>0.44</v>
+      </c>
+      <c r="G88" s="25">
+        <v>0.43</v>
+      </c>
+      <c r="H88" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="I88" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="J88" s="25">
+        <v>0.41</v>
+      </c>
+      <c r="K88" s="25">
+        <v>0.41</v>
+      </c>
+      <c r="L88" s="25">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D89" s="25">
+        <v>-0.71</v>
+      </c>
+      <c r="E89" s="25">
+        <v>-0.79</v>
+      </c>
+      <c r="F89" s="25">
+        <v>-0.76</v>
+      </c>
+      <c r="G89" s="25">
+        <v>-0.7</v>
+      </c>
+      <c r="H89" s="25">
+        <v>-0.77</v>
+      </c>
+      <c r="I89" s="25">
+        <v>-0.77</v>
+      </c>
+      <c r="J89" s="25">
+        <v>-0.78</v>
+      </c>
+      <c r="K89" s="25">
+        <v>-0.76</v>
+      </c>
+      <c r="L89" s="25">
+        <v>-0.73</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="22"/>
+      <c r="B90" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D90" s="25">
+        <v>-1.61</v>
+      </c>
+      <c r="E90" s="25">
+        <v>-1.64</v>
+      </c>
+      <c r="F90" s="25">
+        <v>-1.5</v>
+      </c>
+      <c r="G90" s="25">
+        <v>-1.34</v>
+      </c>
+      <c r="H90" s="25">
+        <v>-1.07</v>
+      </c>
+      <c r="I90" s="25">
+        <v>-0.95</v>
+      </c>
+      <c r="J90" s="25">
+        <v>-0.82</v>
+      </c>
+      <c r="K90" s="25">
+        <v>-0.81</v>
+      </c>
+      <c r="L90" s="25">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="22"/>
+      <c r="B91" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D91" s="25">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="E91" s="25">
+        <v>-0.13</v>
+      </c>
+      <c r="F91" s="25">
+        <v>-0.13</v>
+      </c>
+      <c r="G91" s="25">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="H91" s="25">
+        <v>-0.19</v>
+      </c>
+      <c r="I91" s="25">
+        <v>-0.23</v>
+      </c>
+      <c r="J91" s="25">
+        <v>-0.24</v>
+      </c>
+      <c r="K91" s="25">
+        <v>-0.25</v>
+      </c>
+      <c r="L91" s="25">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="22"/>
+      <c r="B92" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D92" s="25">
+        <v>-1.66</v>
+      </c>
+      <c r="E92" s="25">
+        <v>-1.59</v>
+      </c>
+      <c r="F92" s="25">
+        <v>-1.56</v>
+      </c>
+      <c r="G92" s="25">
+        <v>-1.49</v>
+      </c>
+      <c r="H92" s="25">
+        <v>-1.48</v>
+      </c>
+      <c r="I92" s="25">
+        <v>-1.4</v>
+      </c>
+      <c r="J92" s="25">
+        <v>-1.32</v>
+      </c>
+      <c r="K92" s="25">
+        <v>-1.22</v>
+      </c>
+      <c r="L92" s="25">
+        <v>-1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="22"/>
+      <c r="B93" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D93" s="25">
+        <v>0.26</v>
+      </c>
+      <c r="E93" s="25">
+        <v>0.26</v>
+      </c>
+      <c r="F93" s="25">
+        <v>0.26</v>
+      </c>
+      <c r="G93" s="25">
+        <v>0.27</v>
+      </c>
+      <c r="H93" s="25">
+        <v>0.27</v>
+      </c>
+      <c r="I93" s="25">
+        <v>0.27</v>
+      </c>
+      <c r="J93" s="25">
+        <v>0.27</v>
+      </c>
+      <c r="K93" s="25">
+        <v>0.27</v>
+      </c>
+      <c r="L93" s="25">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D94" s="25">
+        <v>-0.69</v>
+      </c>
+      <c r="E94" s="25">
+        <v>-1.39</v>
+      </c>
+      <c r="F94" s="25">
+        <v>0.06</v>
+      </c>
+      <c r="G94" s="25">
+        <v>0.73</v>
+      </c>
+      <c r="H94" s="25">
+        <v>2.7</v>
+      </c>
+      <c r="I94" s="25">
+        <v>4.22</v>
+      </c>
+      <c r="J94" s="25">
+        <v>3.87</v>
+      </c>
+      <c r="K94" s="25">
+        <v>3.17</v>
+      </c>
+      <c r="L94" s="25">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="22"/>
+      <c r="B95" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D95" s="25">
+        <v>-6.89</v>
+      </c>
+      <c r="E95" s="25">
+        <v>-6.89</v>
+      </c>
+      <c r="F95" s="25">
+        <v>-7.79</v>
+      </c>
+      <c r="G95" s="25">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="H95" s="25">
+        <v>-4.08</v>
+      </c>
+      <c r="I95" s="25">
+        <v>-4.17</v>
+      </c>
+      <c r="J95" s="25">
+        <v>-5.8</v>
+      </c>
+      <c r="K95" s="25">
+        <v>-6.38</v>
+      </c>
+      <c r="L95" s="25">
+        <v>-6.78</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="22"/>
+      <c r="B96" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D96" s="25">
+        <v>-0.11</v>
+      </c>
+      <c r="E96" s="25">
+        <v>-0.13</v>
+      </c>
+      <c r="F96" s="25">
+        <v>-0.25</v>
+      </c>
+      <c r="G96" s="25">
+        <v>-0.51</v>
+      </c>
+      <c r="H96" s="25">
+        <v>-0.76</v>
+      </c>
+      <c r="I96" s="25">
+        <v>-0.87</v>
+      </c>
+      <c r="J96" s="25">
+        <v>-0.89</v>
+      </c>
+      <c r="K96" s="25">
+        <v>-0.92</v>
+      </c>
+      <c r="L96" s="25">
+        <v>-0.77</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="22"/>
+      <c r="B97" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D97" s="25">
+        <v>1.54</v>
+      </c>
+      <c r="E97" s="25">
+        <v>0.94</v>
+      </c>
+      <c r="F97" s="25">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G97" s="25">
+        <v>1.35</v>
+      </c>
+      <c r="H97" s="25">
+        <v>0.95</v>
+      </c>
+      <c r="I97" s="25">
+        <v>1.18</v>
+      </c>
+      <c r="J97" s="25">
+        <v>1.66</v>
+      </c>
+      <c r="K97" s="25">
+        <v>1.82</v>
+      </c>
+      <c r="L97" s="25">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="22"/>
+      <c r="B98" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D98" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="E98" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="F98" s="25">
+        <v>0.21</v>
+      </c>
+      <c r="G98" s="25">
+        <v>0.22</v>
+      </c>
+      <c r="H98" s="25">
+        <v>0.23</v>
+      </c>
+      <c r="I98" s="25">
+        <v>0.23</v>
+      </c>
+      <c r="J98" s="25">
+        <v>0.24</v>
+      </c>
+      <c r="K98" s="25">
+        <v>0.24</v>
+      </c>
+      <c r="L98" s="25">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B100" s="22"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="22"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="22"/>
+      <c r="L100" s="22"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102" s="22"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="22"/>
+      <c r="I102" s="22"/>
+      <c r="J102" s="22"/>
+      <c r="K102" s="22"/>
+      <c r="L102" s="22"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B103" s="22"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="22"/>
+      <c r="L103" s="22"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B104" s="22"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="22"/>
+      <c r="H104" s="22"/>
+      <c r="I104" s="22"/>
+      <c r="J104" s="22"/>
+      <c r="K104" s="22"/>
+      <c r="L104" s="22"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B106" s="22"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="22"/>
+      <c r="H106" s="22"/>
+      <c r="I106" s="22"/>
+      <c r="J106" s="22"/>
+      <c r="K106" s="22"/>
+      <c r="L106" s="22"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B107" s="22"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="22"/>
+      <c r="H107" s="22"/>
+      <c r="I107" s="22"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="22"/>
+      <c r="L107" s="22"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B109" s="22"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="22"/>
+      <c r="H109" s="22"/>
+      <c r="I109" s="22"/>
+      <c r="J109" s="22"/>
+      <c r="K109" s="22"/>
+      <c r="L109" s="22"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B110" s="22"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="22"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="22"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="22"/>
+      <c r="L110" s="22"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B111" s="22"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="22"/>
+      <c r="H111" s="22"/>
+      <c r="I111" s="22"/>
+      <c r="J111" s="22"/>
+      <c r="K111" s="22"/>
+      <c r="L111" s="22"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B112" s="22"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="22"/>
+      <c r="I112" s="22"/>
+      <c r="J112" s="22"/>
+      <c r="K112" s="22"/>
+      <c r="L112" s="22"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>